--- a/SegoeMDL2AssetsAlternative/font.xlsx
+++ b/SegoeMDL2AssetsAlternative/font.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_Studio\Projects\SvgFont2Files\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_Studio\Projects\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C58AFCB-6372-43B8-988B-3043956205A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484D9A84-4FAF-44BB-AEE1-7D07F78D1354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Font" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="3052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="3054">
   <si>
     <t>Name</t>
   </si>
@@ -9186,6 +9186,12 @@
   </si>
   <si>
     <t>&amp;#xf25a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf02f;</t>
+  </si>
+  <si>
+    <t>&amp;#xf412;</t>
   </si>
 </sst>
 </file>
@@ -10029,8 +10035,8 @@
   <dimension ref="A1:D1553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
+      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B736" sqref="B736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13549,6 +13555,12 @@
       <c r="A265" t="s">
         <v>156</v>
       </c>
+      <c r="B265" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3052</v>
+      </c>
       <c r="D265" t="s">
         <v>157</v>
       </c>
@@ -16213,6 +16225,12 @@
       <c r="A598" t="s">
         <v>822</v>
       </c>
+      <c r="B598" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C598" t="s">
+        <v>3042</v>
+      </c>
       <c r="D598" t="s">
         <v>823</v>
       </c>
@@ -17316,6 +17334,12 @@
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1098</v>
+      </c>
+      <c r="B736" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C736" t="s">
+        <v>3053</v>
       </c>
       <c r="D736" t="s">
         <v>1099</v>

--- a/SegoeMDL2AssetsAlternative/font.xlsx
+++ b/SegoeMDL2AssetsAlternative/font.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_Studio\Projects\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484D9A84-4FAF-44BB-AEE1-7D07F78D1354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623BB67-1045-4B65-BCD8-D950DEEEF340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="3054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="3054">
   <si>
     <t>Name</t>
   </si>
@@ -9176,9 +9176,6 @@
     <t>&amp;#xf78c;</t>
   </si>
   <si>
-    <t>&amp;#xf0b2;</t>
-  </si>
-  <si>
     <t>&amp;#xf65e;</t>
   </si>
   <si>
@@ -9192,6 +9189,9 @@
   </si>
   <si>
     <t>&amp;#xf412;</t>
+  </si>
+  <si>
+    <t>&amp;#xf31e;</t>
   </si>
 </sst>
 </file>
@@ -10035,14 +10035,14 @@
   <dimension ref="A1:D1553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B736" sqref="B736"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
@@ -12519,7 +12519,7 @@
         <v>2728</v>
       </c>
       <c r="C177" t="s">
-        <v>3048</v>
+        <v>3053</v>
       </c>
       <c r="D177" t="s">
         <v>2957</v>
@@ -12533,7 +12533,7 @@
         <v>2728</v>
       </c>
       <c r="C178" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D178" t="s">
         <v>2958</v>
@@ -12631,7 +12631,7 @@
         <v>2728</v>
       </c>
       <c r="C185" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D185" t="s">
         <v>2966</v>
@@ -12645,7 +12645,7 @@
         <v>2728</v>
       </c>
       <c r="C186" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D186" t="s">
         <v>2967</v>
@@ -12739,6 +12739,12 @@
       <c r="A193" t="s">
         <v>860</v>
       </c>
+      <c r="B193" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2974</v>
+      </c>
       <c r="D193" t="s">
         <v>2974</v>
       </c>
@@ -12747,6 +12753,12 @@
       <c r="A194" t="s">
         <v>862</v>
       </c>
+      <c r="B194" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2975</v>
+      </c>
       <c r="D194" t="s">
         <v>2975</v>
       </c>
@@ -13125,6 +13137,12 @@
       <c r="A224" t="s">
         <v>74</v>
       </c>
+      <c r="B224" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3022</v>
+      </c>
       <c r="D224" t="s">
         <v>75</v>
       </c>
@@ -13475,6 +13493,12 @@
       <c r="A255" t="s">
         <v>136</v>
       </c>
+      <c r="B255" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3047</v>
+      </c>
       <c r="D255" t="s">
         <v>137</v>
       </c>
@@ -13483,6 +13507,12 @@
       <c r="A256" t="s">
         <v>138</v>
       </c>
+      <c r="B256" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3053</v>
+      </c>
       <c r="D256" t="s">
         <v>139</v>
       </c>
@@ -13559,7 +13589,7 @@
         <v>2728</v>
       </c>
       <c r="C265" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D265" t="s">
         <v>157</v>
@@ -17339,7 +17369,7 @@
         <v>2729</v>
       </c>
       <c r="C736" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D736" t="s">
         <v>1099</v>

--- a/SegoeMDL2AssetsAlternative/font.xlsx
+++ b/SegoeMDL2AssetsAlternative/font.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_Studio\Projects\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623BB67-1045-4B65-BCD8-D950DEEEF340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59476048-1F7B-45E1-832F-E682EBFAA636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Font" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="3054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="3180">
   <si>
     <t>Name</t>
   </si>
@@ -9192,6 +9190,384 @@
   </si>
   <si>
     <t>&amp;#xf31e;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1ad;</t>
+  </si>
+  <si>
+    <t>&amp;#xf518;</t>
+  </si>
+  <si>
+    <t>&amp;#xf14a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf063;</t>
+  </si>
+  <si>
+    <t>&amp;#xf55a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf30c;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0c2;</t>
+  </si>
+  <si>
+    <t>&amp;#xf120;</t>
+  </si>
+  <si>
+    <t>&amp;#xf12d;</t>
+  </si>
+  <si>
+    <t>&amp;#xf137;</t>
+  </si>
+  <si>
+    <t>&amp;#xf138;</t>
+  </si>
+  <si>
+    <t>&amp;#xf022;</t>
+  </si>
+  <si>
+    <t>&amp;#xf053;</t>
+  </si>
+  <si>
+    <t>&amp;#xf054;</t>
+  </si>
+  <si>
+    <t>&amp;#xf7a4;</t>
+  </si>
+  <si>
+    <t>&amp;#xf109;</t>
+  </si>
+  <si>
+    <t>&amp;#xf2ea;</t>
+  </si>
+  <si>
+    <t>&amp;#xf06a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf7a5;</t>
+  </si>
+  <si>
+    <t>&amp;#xf09c;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0a1;</t>
+  </si>
+  <si>
+    <t>&amp;#xf53f;</t>
+  </si>
+  <si>
+    <t>&amp;#xf187;</t>
+  </si>
+  <si>
+    <t>&amp;#xf071;</t>
+  </si>
+  <si>
+    <t>&amp;#xf07a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf238;</t>
+  </si>
+  <si>
+    <t>&amp;#xf089;</t>
+  </si>
+  <si>
+    <t>&amp;#xf111;</t>
+  </si>
+  <si>
+    <t>&amp;#xf21a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf075;</t>
+  </si>
+  <si>
+    <t>&amp;#xf011;</t>
+  </si>
+  <si>
+    <t>&amp;#xf30a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1b9;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1f6;</t>
+  </si>
+  <si>
+    <t>&amp;#xf7c2;</t>
+  </si>
+  <si>
+    <t>&amp;#xf108;</t>
+  </si>
+  <si>
+    <t>&amp;#xf025;</t>
+  </si>
+  <si>
+    <t>&amp;#xf11b;</t>
+  </si>
+  <si>
+    <t>&amp;#xf207;</t>
+  </si>
+  <si>
+    <t>&amp;#xf5e4;</t>
+  </si>
+  <si>
+    <t>&amp;#xf5eb;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1da;</t>
+  </si>
+  <si>
+    <t>&amp;#xf5fd;</t>
+  </si>
+  <si>
+    <t>&amp;#xf807;</t>
+  </si>
+  <si>
+    <t>&amp;#xf19c;</t>
+  </si>
+  <si>
+    <t>&amp;#xf02d;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0eb;</t>
+  </si>
+  <si>
+    <t>&amp;#xf07c;</t>
+  </si>
+  <si>
+    <t>&amp;#xf796;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1e4;</t>
+  </si>
+  <si>
+    <t>&amp;#xf240;</t>
+  </si>
+  <si>
+    <t>&amp;#xf10e;</t>
+  </si>
+  <si>
+    <t>&amp;#xf10d;</t>
+  </si>
+  <si>
+    <t>&amp;#xf244;</t>
+  </si>
+  <si>
+    <t>&amp;#xf243;</t>
+  </si>
+  <si>
+    <t>&amp;#xf242;</t>
+  </si>
+  <si>
+    <t>&amp;#xf241;</t>
+  </si>
+  <si>
+    <t>&amp;#xf012;</t>
+  </si>
+  <si>
+    <t>&amp;#xf05e;</t>
+  </si>
+  <si>
+    <t>&amp;#xf35d;</t>
+  </si>
+  <si>
+    <t>&amp;#xf009;</t>
+  </si>
+  <si>
+    <t>&amp;#xf245;</t>
+  </si>
+  <si>
+    <t>&amp;#xf008;</t>
+  </si>
+  <si>
+    <t>&amp;#xf06c;</t>
+  </si>
+  <si>
+    <t>&amp;#xf09d;</t>
+  </si>
+  <si>
+    <t>&amp;#xf086;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0c0;</t>
+  </si>
+  <si>
+    <t>&amp;#xf2f2;</t>
+  </si>
+  <si>
+    <t>&amp;#xf03e;</t>
+  </si>
+  <si>
+    <t>&amp;#xf2d1;</t>
+  </si>
+  <si>
+    <t>&amp;#xf2d0;</t>
+  </si>
+  <si>
+    <t>&amp;#xf2d2;</t>
+  </si>
+  <si>
+    <t>&amp;#xf577;</t>
+  </si>
+  <si>
+    <t>&amp;#xf044;</t>
+  </si>
+  <si>
+    <t>&amp;#xf058;</t>
+  </si>
+  <si>
+    <t>&amp;#xf246;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0d8;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0d7;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0da;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0d9;</t>
+  </si>
+  <si>
+    <t>&amp;#xf51f;</t>
+  </si>
+  <si>
+    <t>&amp;#xf121;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0e7;</t>
+  </si>
+  <si>
+    <t>&amp;#xf05a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf529;</t>
+  </si>
+  <si>
+    <t>&amp;#xf698;</t>
+  </si>
+  <si>
+    <t>&amp;#xf295;</t>
+  </si>
+  <si>
+    <t>&amp;#xf52c;</t>
+  </si>
+  <si>
+    <t>&amp;#xf590;</t>
+  </si>
+  <si>
+    <t>&amp;#xf21e;</t>
+  </si>
+  <si>
+    <t>&amp;#xf8cc;</t>
+  </si>
+  <si>
+    <t>&amp;#xf077;</t>
+  </si>
+  <si>
+    <t>&amp;#xf078;</t>
+  </si>
+  <si>
+    <t>&amp;#xf026;</t>
+  </si>
+  <si>
+    <t>&amp;#xf027;</t>
+  </si>
+  <si>
+    <t>&amp;#xf544;</t>
+  </si>
+  <si>
+    <t>&amp;#xf065;</t>
+  </si>
+  <si>
+    <t>&amp;#xf069;</t>
+  </si>
+  <si>
+    <t>&amp;#xf155;</t>
+  </si>
+  <si>
+    <t>&amp;#xf76b;</t>
+  </si>
+  <si>
+    <t>&amp;#xf059;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1fe;</t>
+  </si>
+  <si>
+    <t>&amp;#xf085;</t>
+  </si>
+  <si>
+    <t>&amp;#xf080;</t>
+  </si>
+  <si>
+    <t>&amp;#xf129;</t>
+  </si>
+  <si>
+    <t>&amp;#xf057;</t>
+  </si>
+  <si>
+    <t>&amp;#xf87c;</t>
+  </si>
+  <si>
+    <t>&amp;#xf12e;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0f3;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1c1;</t>
+  </si>
+  <si>
+    <t>&amp;#xf7a9;</t>
+  </si>
+  <si>
+    <t>&amp;#xf51a;</t>
+  </si>
+  <si>
+    <t>&amp;#xf46d;</t>
+  </si>
+  <si>
+    <t>&amp;#xf200;</t>
+  </si>
+  <si>
+    <t>&amp;#xf5ae;</t>
+  </si>
+  <si>
+    <t>&amp;#xf004;</t>
+  </si>
+  <si>
+    <t>&amp;#xf043;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0a3;</t>
+  </si>
+  <si>
+    <t>&amp;#xf050;</t>
+  </si>
+  <si>
+    <t>&amp;#xf049;</t>
+  </si>
+  <si>
+    <t>&amp;#xf124;</t>
+  </si>
+  <si>
+    <t>&amp;#xf188;</t>
+  </si>
+  <si>
+    <t>&amp;#xf64f;</t>
+  </si>
+  <si>
+    <t>&amp;#xf66f;</t>
+  </si>
+  <si>
+    <t>&amp;#xf838;</t>
+  </si>
+  <si>
+    <t>&amp;#xf519;</t>
   </si>
 </sst>
 </file>
@@ -10035,8 +10411,8 @@
   <dimension ref="A1:D1553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+      <pane ySplit="1" topLeftCell="A981" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B988" sqref="B988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11021,7 +11397,7 @@
         <v>2992</v>
       </c>
       <c r="C70" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="D70" t="s">
         <v>2832</v>
@@ -11035,7 +11411,7 @@
         <v>2992</v>
       </c>
       <c r="C71" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="D71" t="s">
         <v>2833</v>
@@ -13371,6 +13747,12 @@
       <c r="A242" t="s">
         <v>110</v>
       </c>
+      <c r="B242" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2962</v>
+      </c>
       <c r="D242" t="s">
         <v>111</v>
       </c>
@@ -13379,6 +13761,12 @@
       <c r="A243" t="s">
         <v>112</v>
       </c>
+      <c r="B243" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3054</v>
+      </c>
       <c r="D243" t="s">
         <v>113</v>
       </c>
@@ -13415,6 +13803,12 @@
       <c r="A246" t="s">
         <v>118</v>
       </c>
+      <c r="B246" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3055</v>
+      </c>
       <c r="D246" t="s">
         <v>119</v>
       </c>
@@ -13453,6 +13847,12 @@
       <c r="A250" t="s">
         <v>126</v>
       </c>
+      <c r="B250" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3056</v>
+      </c>
       <c r="D250" t="s">
         <v>127</v>
       </c>
@@ -13485,6 +13885,12 @@
       <c r="A254" t="s">
         <v>134</v>
       </c>
+      <c r="B254" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2976</v>
+      </c>
       <c r="D254" t="s">
         <v>135</v>
       </c>
@@ -13599,6 +14005,12 @@
       <c r="A266" t="s">
         <v>158</v>
       </c>
+      <c r="B266" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2986</v>
+      </c>
       <c r="D266" t="s">
         <v>159</v>
       </c>
@@ -13607,6 +14019,12 @@
       <c r="A267" t="s">
         <v>160</v>
       </c>
+      <c r="B267" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C267" t="s">
+        <v>3057</v>
+      </c>
       <c r="D267" t="s">
         <v>161</v>
       </c>
@@ -13623,6 +14041,12 @@
       <c r="A269" t="s">
         <v>164</v>
       </c>
+      <c r="B269" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2982</v>
+      </c>
       <c r="D269" t="s">
         <v>165</v>
       </c>
@@ -13631,6 +14055,12 @@
       <c r="A270" t="s">
         <v>166</v>
       </c>
+      <c r="B270" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2981</v>
+      </c>
       <c r="D270" t="s">
         <v>167</v>
       </c>
@@ -13639,6 +14069,12 @@
       <c r="A271" t="s">
         <v>168</v>
       </c>
+      <c r="B271" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C271" t="s">
+        <v>3030</v>
+      </c>
       <c r="D271" t="s">
         <v>169</v>
       </c>
@@ -13647,6 +14083,12 @@
       <c r="A272" t="s">
         <v>170</v>
       </c>
+      <c r="B272" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C272" t="s">
+        <v>3058</v>
+      </c>
       <c r="D272" t="s">
         <v>171</v>
       </c>
@@ -13663,6 +14105,12 @@
       <c r="A274" t="s">
         <v>174</v>
       </c>
+      <c r="B274" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C274" t="s">
+        <v>3059</v>
+      </c>
       <c r="D274" t="s">
         <v>175</v>
       </c>
@@ -13671,6 +14119,12 @@
       <c r="A275" t="s">
         <v>176</v>
       </c>
+      <c r="B275" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C275" t="s">
+        <v>3060</v>
+      </c>
       <c r="D275" t="s">
         <v>177</v>
       </c>
@@ -13695,6 +14149,12 @@
       <c r="A278" t="s">
         <v>182</v>
       </c>
+      <c r="B278" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C278" t="s">
+        <v>3061</v>
+      </c>
       <c r="D278" t="s">
         <v>183</v>
       </c>
@@ -13727,6 +14187,12 @@
       <c r="A282" t="s">
         <v>190</v>
       </c>
+      <c r="B282" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3062</v>
+      </c>
       <c r="D282" t="s">
         <v>191</v>
       </c>
@@ -13759,6 +14225,12 @@
       <c r="A286" t="s">
         <v>198</v>
       </c>
+      <c r="B286" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C286" t="s">
+        <v>3063</v>
+      </c>
       <c r="D286" t="s">
         <v>199</v>
       </c>
@@ -13767,6 +14239,12 @@
       <c r="A287" t="s">
         <v>200</v>
       </c>
+      <c r="B287" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3064</v>
+      </c>
       <c r="D287" t="s">
         <v>201</v>
       </c>
@@ -13775,6 +14253,12 @@
       <c r="A288" t="s">
         <v>202</v>
       </c>
+      <c r="B288" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3065</v>
+      </c>
       <c r="D288" t="s">
         <v>203</v>
       </c>
@@ -13799,6 +14283,12 @@
       <c r="A291" t="s">
         <v>208</v>
       </c>
+      <c r="B291" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C291" t="s">
+        <v>3003</v>
+      </c>
       <c r="D291" t="s">
         <v>209</v>
       </c>
@@ -13815,6 +14305,12 @@
       <c r="A293" t="s">
         <v>212</v>
       </c>
+      <c r="B293" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C293" t="s">
+        <v>3007</v>
+      </c>
       <c r="D293" t="s">
         <v>213</v>
       </c>
@@ -13823,6 +14319,12 @@
       <c r="A294" t="s">
         <v>214</v>
       </c>
+      <c r="B294" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2979</v>
+      </c>
       <c r="D294" t="s">
         <v>215</v>
       </c>
@@ -13831,6 +14333,12 @@
       <c r="A295" t="s">
         <v>216</v>
       </c>
+      <c r="B295" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2980</v>
+      </c>
       <c r="D295" t="s">
         <v>217</v>
       </c>
@@ -13839,6 +14347,12 @@
       <c r="A296" t="s">
         <v>218</v>
       </c>
+      <c r="B296" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C296" t="s">
+        <v>3066</v>
+      </c>
       <c r="D296" t="s">
         <v>219</v>
       </c>
@@ -13847,6 +14361,12 @@
       <c r="A297" t="s">
         <v>220</v>
       </c>
+      <c r="B297" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C297" t="s">
+        <v>3067</v>
+      </c>
       <c r="D297" t="s">
         <v>221</v>
       </c>
@@ -13863,6 +14383,12 @@
       <c r="A299" t="s">
         <v>224</v>
       </c>
+      <c r="B299" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C299" t="s">
+        <v>3018</v>
+      </c>
       <c r="D299" t="s">
         <v>225</v>
       </c>
@@ -13871,6 +14397,12 @@
       <c r="A300" t="s">
         <v>226</v>
       </c>
+      <c r="B300" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C300" t="s">
+        <v>3068</v>
+      </c>
       <c r="D300" t="s">
         <v>227</v>
       </c>
@@ -13879,6 +14411,12 @@
       <c r="A301" t="s">
         <v>228</v>
       </c>
+      <c r="B301" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C301" t="s">
+        <v>3069</v>
+      </c>
       <c r="D301" t="s">
         <v>229</v>
       </c>
@@ -13911,6 +14449,12 @@
       <c r="A305" t="s">
         <v>236</v>
       </c>
+      <c r="B305" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2804</v>
+      </c>
       <c r="D305" t="s">
         <v>237</v>
       </c>
@@ -13935,6 +14479,12 @@
       <c r="A308" t="s">
         <v>242</v>
       </c>
+      <c r="B308" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C308" t="s">
+        <v>3070</v>
+      </c>
       <c r="D308" t="s">
         <v>243</v>
       </c>
@@ -13943,6 +14493,12 @@
       <c r="A309" t="s">
         <v>244</v>
       </c>
+      <c r="B309" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2818</v>
+      </c>
       <c r="D309" t="s">
         <v>245</v>
       </c>
@@ -13951,6 +14507,12 @@
       <c r="A310" t="s">
         <v>246</v>
       </c>
+      <c r="B310" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C310" t="s">
+        <v>3000</v>
+      </c>
       <c r="D310" t="s">
         <v>247</v>
       </c>
@@ -13959,6 +14521,12 @@
       <c r="A311" t="s">
         <v>248</v>
       </c>
+      <c r="B311" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2912</v>
+      </c>
       <c r="D311" t="s">
         <v>249</v>
       </c>
@@ -13967,6 +14535,12 @@
       <c r="A312" t="s">
         <v>250</v>
       </c>
+      <c r="B312" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C312" t="s">
+        <v>3002</v>
+      </c>
       <c r="D312" t="s">
         <v>251</v>
       </c>
@@ -13975,6 +14549,12 @@
       <c r="A313" t="s">
         <v>252</v>
       </c>
+      <c r="B313" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2953</v>
+      </c>
       <c r="D313" t="s">
         <v>253</v>
       </c>
@@ -13991,6 +14571,12 @@
       <c r="A315" t="s">
         <v>256</v>
       </c>
+      <c r="B315" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C315" t="s">
+        <v>3016</v>
+      </c>
       <c r="D315" t="s">
         <v>257</v>
       </c>
@@ -13999,6 +14585,12 @@
       <c r="A316" t="s">
         <v>258</v>
       </c>
+      <c r="B316" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C316" t="s">
+        <v>3046</v>
+      </c>
       <c r="D316" t="s">
         <v>259</v>
       </c>
@@ -14015,6 +14607,12 @@
       <c r="A318" t="s">
         <v>262</v>
       </c>
+      <c r="B318" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C318" t="s">
+        <v>3071</v>
+      </c>
       <c r="D318" t="s">
         <v>263</v>
       </c>
@@ -14023,6 +14621,12 @@
       <c r="A319" t="s">
         <v>264</v>
       </c>
+      <c r="B319" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C319" t="s">
+        <v>3072</v>
+      </c>
       <c r="D319" t="s">
         <v>265</v>
       </c>
@@ -14031,6 +14635,12 @@
       <c r="A320" t="s">
         <v>266</v>
       </c>
+      <c r="B320" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C320" t="s">
+        <v>3073</v>
+      </c>
       <c r="D320" t="s">
         <v>267</v>
       </c>
@@ -14039,6 +14649,12 @@
       <c r="A321" t="s">
         <v>268</v>
       </c>
+      <c r="B321" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2879</v>
+      </c>
       <c r="D321" t="s">
         <v>269</v>
       </c>
@@ -14047,6 +14663,12 @@
       <c r="A322" t="s">
         <v>270</v>
       </c>
+      <c r="B322" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C322" t="s">
+        <v>3012</v>
+      </c>
       <c r="D322" t="s">
         <v>271</v>
       </c>
@@ -14063,6 +14685,12 @@
       <c r="A324" t="s">
         <v>274</v>
       </c>
+      <c r="B324" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C324" t="s">
+        <v>3074</v>
+      </c>
       <c r="D324" t="s">
         <v>275</v>
       </c>
@@ -14071,6 +14699,12 @@
       <c r="A325" t="s">
         <v>276</v>
       </c>
+      <c r="B325" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2805</v>
+      </c>
       <c r="D325" t="s">
         <v>277</v>
       </c>
@@ -14079,6 +14713,12 @@
       <c r="A326" t="s">
         <v>278</v>
       </c>
+      <c r="B326" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2885</v>
+      </c>
       <c r="D326" t="s">
         <v>279</v>
       </c>
@@ -14087,6 +14727,12 @@
       <c r="A327" t="s">
         <v>280</v>
       </c>
+      <c r="B327" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2849</v>
+      </c>
       <c r="D327" t="s">
         <v>281</v>
       </c>
@@ -14095,6 +14741,12 @@
       <c r="A328" t="s">
         <v>282</v>
       </c>
+      <c r="B328" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C328" t="s">
+        <v>3075</v>
+      </c>
       <c r="D328" t="s">
         <v>283</v>
       </c>
@@ -14143,6 +14795,12 @@
       <c r="A334" t="s">
         <v>294</v>
       </c>
+      <c r="B334" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2983</v>
+      </c>
       <c r="D334" t="s">
         <v>295</v>
       </c>
@@ -14151,6 +14809,12 @@
       <c r="A335" t="s">
         <v>296</v>
       </c>
+      <c r="B335" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2984</v>
+      </c>
       <c r="D335" t="s">
         <v>297</v>
       </c>
@@ -14159,6 +14823,12 @@
       <c r="A336" t="s">
         <v>298</v>
       </c>
+      <c r="B336" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2994</v>
+      </c>
       <c r="D336" t="s">
         <v>299</v>
       </c>
@@ -14167,6 +14837,12 @@
       <c r="A337" t="s">
         <v>300</v>
       </c>
+      <c r="B337" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2886</v>
+      </c>
       <c r="D337" t="s">
         <v>301</v>
       </c>
@@ -14175,6 +14851,12 @@
       <c r="A338" t="s">
         <v>302</v>
       </c>
+      <c r="B338" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C338" t="s">
+        <v>2836</v>
+      </c>
       <c r="D338" t="s">
         <v>303</v>
       </c>
@@ -14183,6 +14865,12 @@
       <c r="A339" t="s">
         <v>304</v>
       </c>
+      <c r="B339" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C339" t="s">
+        <v>3026</v>
+      </c>
       <c r="D339" t="s">
         <v>305</v>
       </c>
@@ -14191,6 +14879,12 @@
       <c r="A340" t="s">
         <v>306</v>
       </c>
+      <c r="B340" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2900</v>
+      </c>
       <c r="D340" t="s">
         <v>307</v>
       </c>
@@ -14199,6 +14893,12 @@
       <c r="A341" t="s">
         <v>308</v>
       </c>
+      <c r="B341" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C341" t="s">
+        <v>22</v>
+      </c>
       <c r="D341" t="s">
         <v>309</v>
       </c>
@@ -14207,6 +14907,12 @@
       <c r="A342" t="s">
         <v>310</v>
       </c>
+      <c r="B342" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C342" t="s">
+        <v>3076</v>
+      </c>
       <c r="D342" t="s">
         <v>311</v>
       </c>
@@ -14215,6 +14921,12 @@
       <c r="A343" t="s">
         <v>312</v>
       </c>
+      <c r="B343" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C343" t="s">
+        <v>3077</v>
+      </c>
       <c r="D343" t="s">
         <v>313</v>
       </c>
@@ -14239,6 +14951,12 @@
       <c r="A346" t="s">
         <v>318</v>
       </c>
+      <c r="B346" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C346" t="s">
+        <v>3078</v>
+      </c>
       <c r="D346" t="s">
         <v>319</v>
       </c>
@@ -14247,6 +14965,12 @@
       <c r="A347" t="s">
         <v>320</v>
       </c>
+      <c r="B347" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C347" t="s">
+        <v>3079</v>
+      </c>
       <c r="D347" t="s">
         <v>321</v>
       </c>
@@ -14255,6 +14979,12 @@
       <c r="A348" t="s">
         <v>322</v>
       </c>
+      <c r="B348" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2996</v>
+      </c>
       <c r="D348" t="s">
         <v>323</v>
       </c>
@@ -14263,6 +14993,12 @@
       <c r="A349" t="s">
         <v>324</v>
       </c>
+      <c r="B349" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2997</v>
+      </c>
       <c r="D349" t="s">
         <v>325</v>
       </c>
@@ -14279,6 +15015,12 @@
       <c r="A351" t="s">
         <v>328</v>
       </c>
+      <c r="B351" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C351" t="s">
+        <v>3006</v>
+      </c>
       <c r="D351" t="s">
         <v>329</v>
       </c>
@@ -14287,6 +15029,12 @@
       <c r="A352" t="s">
         <v>330</v>
       </c>
+      <c r="B352" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C352" t="s">
+        <v>3080</v>
+      </c>
       <c r="D352" t="s">
         <v>331</v>
       </c>
@@ -14303,6 +15051,12 @@
       <c r="A354" t="s">
         <v>334</v>
       </c>
+      <c r="B354" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C354" t="s">
+        <v>3081</v>
+      </c>
       <c r="D354" t="s">
         <v>335</v>
       </c>
@@ -14311,6 +15065,12 @@
       <c r="A355" t="s">
         <v>336</v>
       </c>
+      <c r="B355" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C355" t="s">
+        <v>3050</v>
+      </c>
       <c r="D355" t="s">
         <v>337</v>
       </c>
@@ -14327,6 +15087,12 @@
       <c r="A357" t="s">
         <v>340</v>
       </c>
+      <c r="B357" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C357" t="s">
+        <v>3082</v>
+      </c>
       <c r="D357" t="s">
         <v>341</v>
       </c>
@@ -14335,6 +15101,12 @@
       <c r="A358" t="s">
         <v>342</v>
       </c>
+      <c r="B358" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C358" t="s">
+        <v>3029</v>
+      </c>
       <c r="D358" t="s">
         <v>343</v>
       </c>
@@ -14343,6 +15115,12 @@
       <c r="A359" t="s">
         <v>344</v>
       </c>
+      <c r="B359" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C359" t="s">
+        <v>3083</v>
+      </c>
       <c r="D359" t="s">
         <v>345</v>
       </c>
@@ -14351,6 +15129,12 @@
       <c r="A360" t="s">
         <v>346</v>
       </c>
+      <c r="B360" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C360" t="s">
+        <v>3084</v>
+      </c>
       <c r="D360" t="s">
         <v>347</v>
       </c>
@@ -14359,6 +15143,12 @@
       <c r="A361" t="s">
         <v>348</v>
       </c>
+      <c r="B361" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C361" t="s">
+        <v>3085</v>
+      </c>
       <c r="D361" t="s">
         <v>349</v>
       </c>
@@ -14367,6 +15157,12 @@
       <c r="A362" t="s">
         <v>350</v>
       </c>
+      <c r="B362" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C362" t="s">
+        <v>3059</v>
+      </c>
       <c r="D362" t="s">
         <v>351</v>
       </c>
@@ -14375,6 +15171,12 @@
       <c r="A363" t="s">
         <v>352</v>
       </c>
+      <c r="B363" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C363" t="s">
+        <v>3086</v>
+      </c>
       <c r="D363" t="s">
         <v>353</v>
       </c>
@@ -14383,6 +15185,12 @@
       <c r="A364" t="s">
         <v>354</v>
       </c>
+      <c r="B364" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3087</v>
+      </c>
       <c r="D364" t="s">
         <v>355</v>
       </c>
@@ -14391,6 +15199,12 @@
       <c r="A365" t="s">
         <v>356</v>
       </c>
+      <c r="B365" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C365" t="s">
+        <v>2928</v>
+      </c>
       <c r="D365" t="s">
         <v>357</v>
       </c>
@@ -14399,6 +15213,12 @@
       <c r="A366" t="s">
         <v>358</v>
       </c>
+      <c r="B366" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C366" t="s">
+        <v>3039</v>
+      </c>
       <c r="D366" t="s">
         <v>359</v>
       </c>
@@ -14415,6 +15235,12 @@
       <c r="A368" t="s">
         <v>362</v>
       </c>
+      <c r="B368" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C368" t="s">
+        <v>3088</v>
+      </c>
       <c r="D368" t="s">
         <v>363</v>
       </c>
@@ -14439,6 +15265,12 @@
       <c r="A371" t="s">
         <v>368</v>
       </c>
+      <c r="B371" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C371" t="s">
+        <v>3089</v>
+      </c>
       <c r="D371" t="s">
         <v>369</v>
       </c>
@@ -14455,6 +15287,12 @@
       <c r="A373" t="s">
         <v>372</v>
       </c>
+      <c r="B373" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C373" t="s">
+        <v>3090</v>
+      </c>
       <c r="D373" t="s">
         <v>373</v>
       </c>
@@ -14471,6 +15309,12 @@
       <c r="A375" t="s">
         <v>376</v>
       </c>
+      <c r="B375" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C375" t="s">
+        <v>3069</v>
+      </c>
       <c r="D375" t="s">
         <v>377</v>
       </c>
@@ -14503,6 +15347,12 @@
       <c r="A379" t="s">
         <v>384</v>
       </c>
+      <c r="B379" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C379" t="s">
+        <v>3091</v>
+      </c>
       <c r="D379" t="s">
         <v>385</v>
       </c>
@@ -14535,6 +15385,12 @@
       <c r="A383" t="s">
         <v>392</v>
       </c>
+      <c r="B383" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C383" t="s">
+        <v>3086</v>
+      </c>
       <c r="D383" t="s">
         <v>393</v>
       </c>
@@ -14543,6 +15399,12 @@
       <c r="A384" t="s">
         <v>394</v>
       </c>
+      <c r="B384" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2748</v>
+      </c>
       <c r="D384" t="s">
         <v>395</v>
       </c>
@@ -14551,6 +15413,12 @@
       <c r="A385" t="s">
         <v>396</v>
       </c>
+      <c r="B385" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C385" t="s">
+        <v>3092</v>
+      </c>
       <c r="D385" t="s">
         <v>397</v>
       </c>
@@ -14599,6 +15467,12 @@
       <c r="A391" t="s">
         <v>408</v>
       </c>
+      <c r="B391" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2985</v>
+      </c>
       <c r="D391" t="s">
         <v>409</v>
       </c>
@@ -14607,6 +15481,12 @@
       <c r="A392" t="s">
         <v>410</v>
       </c>
+      <c r="B392" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C392" t="s">
+        <v>3093</v>
+      </c>
       <c r="D392" t="s">
         <v>411</v>
       </c>
@@ -14631,6 +15511,12 @@
       <c r="A395" t="s">
         <v>416</v>
       </c>
+      <c r="B395" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C395" t="s">
+        <v>3077</v>
+      </c>
       <c r="D395" t="s">
         <v>417</v>
       </c>
@@ -14647,6 +15533,12 @@
       <c r="A397" t="s">
         <v>420</v>
       </c>
+      <c r="B397" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C397" t="s">
+        <v>3094</v>
+      </c>
       <c r="D397" t="s">
         <v>421</v>
       </c>
@@ -14671,6 +15563,12 @@
       <c r="A400" t="s">
         <v>426</v>
       </c>
+      <c r="B400" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2996</v>
+      </c>
       <c r="D400" t="s">
         <v>427</v>
       </c>
@@ -14679,6 +15577,12 @@
       <c r="A401" t="s">
         <v>428</v>
       </c>
+      <c r="B401" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C401" t="s">
+        <v>3095</v>
+      </c>
       <c r="D401" t="s">
         <v>429</v>
       </c>
@@ -14687,6 +15591,12 @@
       <c r="A402" t="s">
         <v>430</v>
       </c>
+      <c r="B402" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C402" t="s">
+        <v>3045</v>
+      </c>
       <c r="D402" t="s">
         <v>431</v>
       </c>
@@ -14695,6 +15605,12 @@
       <c r="A403" t="s">
         <v>432</v>
       </c>
+      <c r="B403" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C403" t="s">
+        <v>3096</v>
+      </c>
       <c r="D403" t="s">
         <v>433</v>
       </c>
@@ -14719,6 +15635,12 @@
       <c r="A406" t="s">
         <v>438</v>
       </c>
+      <c r="B406" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C406" t="s">
+        <v>3097</v>
+      </c>
       <c r="D406" t="s">
         <v>439</v>
       </c>
@@ -14735,6 +15657,12 @@
       <c r="A408" t="s">
         <v>442</v>
       </c>
+      <c r="B408" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C408" t="s">
+        <v>3098</v>
+      </c>
       <c r="D408" t="s">
         <v>443</v>
       </c>
@@ -14783,6 +15711,12 @@
       <c r="A414" t="s">
         <v>454</v>
       </c>
+      <c r="B414" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C414" t="s">
+        <v>3099</v>
+      </c>
       <c r="D414" t="s">
         <v>455</v>
       </c>
@@ -14799,6 +15733,12 @@
       <c r="A416" t="s">
         <v>458</v>
       </c>
+      <c r="B416" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C416" t="s">
+        <v>3100</v>
+      </c>
       <c r="D416" t="s">
         <v>459</v>
       </c>
@@ -14807,6 +15747,12 @@
       <c r="A417" t="s">
         <v>460</v>
       </c>
+      <c r="B417" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C417" t="s">
+        <v>2750</v>
+      </c>
       <c r="D417" t="s">
         <v>461</v>
       </c>
@@ -14831,6 +15777,12 @@
       <c r="A420" t="s">
         <v>466</v>
       </c>
+      <c r="B420" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C420" t="s">
+        <v>3101</v>
+      </c>
       <c r="D420" t="s">
         <v>467</v>
       </c>
@@ -14839,6 +15791,12 @@
       <c r="A421" t="s">
         <v>468</v>
       </c>
+      <c r="B421" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C421" t="s">
+        <v>3102</v>
+      </c>
       <c r="D421" t="s">
         <v>469</v>
       </c>
@@ -14863,6 +15821,12 @@
       <c r="A424" t="s">
         <v>474</v>
       </c>
+      <c r="B424" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C424" t="s">
+        <v>3103</v>
+      </c>
       <c r="D424" t="s">
         <v>475</v>
       </c>
@@ -14887,6 +15851,12 @@
       <c r="A427" t="s">
         <v>480</v>
       </c>
+      <c r="B427" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C427" t="s">
+        <v>3104</v>
+      </c>
       <c r="D427" t="s">
         <v>481</v>
       </c>
@@ -14895,6 +15865,12 @@
       <c r="A428" t="s">
         <v>482</v>
       </c>
+      <c r="B428" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2736</v>
+      </c>
       <c r="D428" t="s">
         <v>483</v>
       </c>
@@ -14935,6 +15911,12 @@
       <c r="A433" t="s">
         <v>492</v>
       </c>
+      <c r="B433" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C433" t="s">
+        <v>2984</v>
+      </c>
       <c r="D433" t="s">
         <v>493</v>
       </c>
@@ -14959,6 +15941,12 @@
       <c r="A436" t="s">
         <v>498</v>
       </c>
+      <c r="B436" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C436" t="s">
+        <v>3105</v>
+      </c>
       <c r="D436" t="s">
         <v>499</v>
       </c>
@@ -14967,6 +15955,12 @@
       <c r="A437" t="s">
         <v>500</v>
       </c>
+      <c r="B437" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C437" t="s">
+        <v>3106</v>
+      </c>
       <c r="D437" t="s">
         <v>501</v>
       </c>
@@ -15023,6 +16017,12 @@
       <c r="A444" t="s">
         <v>514</v>
       </c>
+      <c r="B444" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C444" t="s">
+        <v>3107</v>
+      </c>
       <c r="D444" t="s">
         <v>515</v>
       </c>
@@ -15031,6 +16031,12 @@
       <c r="A445" t="s">
         <v>516</v>
       </c>
+      <c r="B445" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C445" t="s">
+        <v>3108</v>
+      </c>
       <c r="D445" t="s">
         <v>517</v>
       </c>
@@ -15039,6 +16045,12 @@
       <c r="A446" t="s">
         <v>518</v>
       </c>
+      <c r="B446" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C446" t="s">
+        <v>3108</v>
+      </c>
       <c r="D446" t="s">
         <v>519</v>
       </c>
@@ -15047,6 +16059,12 @@
       <c r="A447" t="s">
         <v>520</v>
       </c>
+      <c r="B447" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C447" t="s">
+        <v>3108</v>
+      </c>
       <c r="D447" t="s">
         <v>521</v>
       </c>
@@ -15055,6 +16073,12 @@
       <c r="A448" t="s">
         <v>522</v>
       </c>
+      <c r="B448" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3108</v>
+      </c>
       <c r="D448" t="s">
         <v>523</v>
       </c>
@@ -15063,6 +16087,12 @@
       <c r="A449" t="s">
         <v>524</v>
       </c>
+      <c r="B449" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C449" t="s">
+        <v>3109</v>
+      </c>
       <c r="D449" t="s">
         <v>525</v>
       </c>
@@ -15071,6 +16101,12 @@
       <c r="A450" t="s">
         <v>526</v>
       </c>
+      <c r="B450" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C450" t="s">
+        <v>3110</v>
+      </c>
       <c r="D450" t="s">
         <v>527</v>
       </c>
@@ -15079,6 +16115,12 @@
       <c r="A451" t="s">
         <v>528</v>
       </c>
+      <c r="B451" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C451" t="s">
+        <v>3110</v>
+      </c>
       <c r="D451" t="s">
         <v>529</v>
       </c>
@@ -15087,6 +16129,12 @@
       <c r="A452" t="s">
         <v>530</v>
       </c>
+      <c r="B452" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C452" t="s">
+        <v>3110</v>
+      </c>
       <c r="D452" t="s">
         <v>531</v>
       </c>
@@ -15095,6 +16143,12 @@
       <c r="A453" t="s">
         <v>532</v>
       </c>
+      <c r="B453" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C453" t="s">
+        <v>3110</v>
+      </c>
       <c r="D453" t="s">
         <v>533</v>
       </c>
@@ -15263,6 +16317,12 @@
       <c r="A474" t="s">
         <v>574</v>
       </c>
+      <c r="B474" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C474" t="s">
+        <v>3111</v>
+      </c>
       <c r="D474" t="s">
         <v>575</v>
       </c>
@@ -15279,6 +16339,12 @@
       <c r="A476" t="s">
         <v>578</v>
       </c>
+      <c r="B476" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C476" t="s">
+        <v>3111</v>
+      </c>
       <c r="D476" t="s">
         <v>579</v>
       </c>
@@ -15287,6 +16353,12 @@
       <c r="A477" t="s">
         <v>580</v>
       </c>
+      <c r="B477" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C477" t="s">
+        <v>3112</v>
+      </c>
       <c r="D477" t="s">
         <v>581</v>
       </c>
@@ -15535,6 +16607,12 @@
       <c r="A508" t="s">
         <v>642</v>
       </c>
+      <c r="B508" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C508" t="s">
+        <v>3026</v>
+      </c>
       <c r="D508" t="s">
         <v>643</v>
       </c>
@@ -15551,6 +16629,12 @@
       <c r="A510" t="s">
         <v>646</v>
       </c>
+      <c r="B510" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C510" t="s">
+        <v>2977</v>
+      </c>
       <c r="D510" t="s">
         <v>647</v>
       </c>
@@ -15559,6 +16643,12 @@
       <c r="A511" t="s">
         <v>648</v>
       </c>
+      <c r="B511" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C511" t="s">
+        <v>2978</v>
+      </c>
       <c r="D511" t="s">
         <v>649</v>
       </c>
@@ -15567,6 +16657,12 @@
       <c r="A512" t="s">
         <v>650</v>
       </c>
+      <c r="B512" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C512" t="s">
+        <v>51</v>
+      </c>
       <c r="D512" t="s">
         <v>651</v>
       </c>
@@ -15575,6 +16671,12 @@
       <c r="A513" t="s">
         <v>652</v>
       </c>
+      <c r="B513" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C513" t="s">
+        <v>2987</v>
+      </c>
       <c r="D513" t="s">
         <v>653</v>
       </c>
@@ -15583,6 +16685,12 @@
       <c r="A514" t="s">
         <v>654</v>
       </c>
+      <c r="B514" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C514" t="s">
+        <v>2988</v>
+      </c>
       <c r="D514" t="s">
         <v>655</v>
       </c>
@@ -15591,6 +16699,12 @@
       <c r="A515" t="s">
         <v>656</v>
       </c>
+      <c r="B515" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C515" t="s">
+        <v>2989</v>
+      </c>
       <c r="D515" t="s">
         <v>657</v>
       </c>
@@ -15599,6 +16713,12 @@
       <c r="A516" t="s">
         <v>658</v>
       </c>
+      <c r="B516" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C516" t="s">
+        <v>2990</v>
+      </c>
       <c r="D516" t="s">
         <v>659</v>
       </c>
@@ -15607,6 +16727,12 @@
       <c r="A517" t="s">
         <v>660</v>
       </c>
+      <c r="B517" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C517" t="s">
+        <v>2991</v>
+      </c>
       <c r="D517" t="s">
         <v>661</v>
       </c>
@@ -15615,6 +16741,12 @@
       <c r="A518" t="s">
         <v>662</v>
       </c>
+      <c r="B518" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C518" t="s">
+        <v>2790</v>
+      </c>
       <c r="D518" t="s">
         <v>663</v>
       </c>
@@ -15623,6 +16755,12 @@
       <c r="A519" t="s">
         <v>664</v>
       </c>
+      <c r="B519" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C519" t="s">
+        <v>2791</v>
+      </c>
       <c r="D519" t="s">
         <v>665</v>
       </c>
@@ -15631,6 +16769,12 @@
       <c r="A520" t="s">
         <v>666</v>
       </c>
+      <c r="B520" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C520" t="s">
+        <v>2792</v>
+      </c>
       <c r="D520" t="s">
         <v>667</v>
       </c>
@@ -15639,6 +16783,12 @@
       <c r="A521" t="s">
         <v>668</v>
       </c>
+      <c r="B521" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C521" t="s">
+        <v>2797</v>
+      </c>
       <c r="D521" t="s">
         <v>669</v>
       </c>
@@ -15647,6 +16797,12 @@
       <c r="A522" t="s">
         <v>670</v>
       </c>
+      <c r="B522" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2800</v>
+      </c>
       <c r="D522" t="s">
         <v>671</v>
       </c>
@@ -15655,6 +16811,12 @@
       <c r="A523" t="s">
         <v>672</v>
       </c>
+      <c r="B523" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C523" t="s">
+        <v>2799</v>
+      </c>
       <c r="D523" t="s">
         <v>673</v>
       </c>
@@ -15663,6 +16825,12 @@
       <c r="A524" t="s">
         <v>674</v>
       </c>
+      <c r="B524" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2803</v>
+      </c>
       <c r="D524" t="s">
         <v>675</v>
       </c>
@@ -15671,6 +16839,12 @@
       <c r="A525" t="s">
         <v>676</v>
       </c>
+      <c r="B525" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C525" t="s">
+        <v>2806</v>
+      </c>
       <c r="D525" t="s">
         <v>677</v>
       </c>
@@ -15679,6 +16853,12 @@
       <c r="A526" t="s">
         <v>678</v>
       </c>
+      <c r="B526" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C526" t="s">
+        <v>2741</v>
+      </c>
       <c r="D526" t="s">
         <v>679</v>
       </c>
@@ -15687,6 +16867,12 @@
       <c r="A527" t="s">
         <v>680</v>
       </c>
+      <c r="B527" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C527" t="s">
+        <v>2808</v>
+      </c>
       <c r="D527" t="s">
         <v>681</v>
       </c>
@@ -15695,6 +16881,12 @@
       <c r="A528" t="s">
         <v>682</v>
       </c>
+      <c r="B528" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C528" t="s">
+        <v>2809</v>
+      </c>
       <c r="D528" t="s">
         <v>683</v>
       </c>
@@ -15703,6 +16895,12 @@
       <c r="A529" t="s">
         <v>684</v>
       </c>
+      <c r="B529" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C529" t="s">
+        <v>2810</v>
+      </c>
       <c r="D529" t="s">
         <v>685</v>
       </c>
@@ -15711,6 +16909,12 @@
       <c r="A530" t="s">
         <v>686</v>
       </c>
+      <c r="B530" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C530" t="s">
+        <v>3113</v>
+      </c>
       <c r="D530" t="s">
         <v>687</v>
       </c>
@@ -15727,6 +16931,12 @@
       <c r="A532" t="s">
         <v>690</v>
       </c>
+      <c r="B532" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C532" t="s">
+        <v>3114</v>
+      </c>
       <c r="D532" t="s">
         <v>691</v>
       </c>
@@ -15735,6 +16945,12 @@
       <c r="A533" t="s">
         <v>692</v>
       </c>
+      <c r="B533" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C533" t="s">
+        <v>2822</v>
+      </c>
       <c r="D533" t="s">
         <v>693</v>
       </c>
@@ -15743,6 +16959,12 @@
       <c r="A534" t="s">
         <v>694</v>
       </c>
+      <c r="B534" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C534" t="s">
+        <v>3001</v>
+      </c>
       <c r="D534" t="s">
         <v>695</v>
       </c>
@@ -15751,6 +16973,12 @@
       <c r="A535" t="s">
         <v>696</v>
       </c>
+      <c r="B535" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C535" t="s">
+        <v>2825</v>
+      </c>
       <c r="D535" t="s">
         <v>697</v>
       </c>
@@ -15759,6 +16987,12 @@
       <c r="A536" t="s">
         <v>698</v>
       </c>
+      <c r="B536" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C536" t="s">
+        <v>2828</v>
+      </c>
       <c r="D536" t="s">
         <v>699</v>
       </c>
@@ -15775,6 +17009,12 @@
       <c r="A538" t="s">
         <v>702</v>
       </c>
+      <c r="B538" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C538" t="s">
+        <v>2834</v>
+      </c>
       <c r="D538" t="s">
         <v>703</v>
       </c>
@@ -15783,6 +17023,12 @@
       <c r="A539" t="s">
         <v>704</v>
       </c>
+      <c r="B539" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C539" t="s">
+        <v>3115</v>
+      </c>
       <c r="D539" t="s">
         <v>705</v>
       </c>
@@ -15791,6 +17037,12 @@
       <c r="A540" t="s">
         <v>706</v>
       </c>
+      <c r="B540" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C540" t="s">
+        <v>3004</v>
+      </c>
       <c r="D540" t="s">
         <v>707</v>
       </c>
@@ -15799,6 +17051,12 @@
       <c r="A541" t="s">
         <v>708</v>
       </c>
+      <c r="B541" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C541" t="s">
+        <v>3116</v>
+      </c>
       <c r="D541" t="s">
         <v>709</v>
       </c>
@@ -15807,6 +17065,12 @@
       <c r="A542" t="s">
         <v>710</v>
       </c>
+      <c r="B542" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C542" t="s">
+        <v>2840</v>
+      </c>
       <c r="D542" t="s">
         <v>711</v>
       </c>
@@ -15815,6 +17079,12 @@
       <c r="A543" t="s">
         <v>712</v>
       </c>
+      <c r="B543" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C543" t="s">
+        <v>2841</v>
+      </c>
       <c r="D543" t="s">
         <v>713</v>
       </c>
@@ -15823,6 +17093,12 @@
       <c r="A544" t="s">
         <v>714</v>
       </c>
+      <c r="B544" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2842</v>
+      </c>
       <c r="D544" t="s">
         <v>715</v>
       </c>
@@ -15831,6 +17107,12 @@
       <c r="A545" t="s">
         <v>716</v>
       </c>
+      <c r="B545" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C545" t="s">
+        <v>2843</v>
+      </c>
       <c r="D545" t="s">
         <v>717</v>
       </c>
@@ -15839,6 +17121,12 @@
       <c r="A546" t="s">
         <v>718</v>
       </c>
+      <c r="B546" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C546" t="s">
+        <v>3024</v>
+      </c>
       <c r="D546" t="s">
         <v>719</v>
       </c>
@@ -15847,6 +17135,12 @@
       <c r="A547" t="s">
         <v>720</v>
       </c>
+      <c r="B547" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C547" t="s">
+        <v>2846</v>
+      </c>
       <c r="D547" t="s">
         <v>721</v>
       </c>
@@ -15855,6 +17149,12 @@
       <c r="A548" t="s">
         <v>722</v>
       </c>
+      <c r="B548" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C548" t="s">
+        <v>3006</v>
+      </c>
       <c r="D548" t="s">
         <v>723</v>
       </c>
@@ -15863,6 +17163,12 @@
       <c r="A549" t="s">
         <v>724</v>
       </c>
+      <c r="B549" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2850</v>
+      </c>
       <c r="D549" t="s">
         <v>725</v>
       </c>
@@ -15871,6 +17177,12 @@
       <c r="A550" t="s">
         <v>726</v>
       </c>
+      <c r="B550" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C550" t="s">
+        <v>51</v>
+      </c>
       <c r="D550" t="s">
         <v>727</v>
       </c>
@@ -15879,6 +17191,12 @@
       <c r="A551" t="s">
         <v>728</v>
       </c>
+      <c r="B551" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C551" t="s">
+        <v>2852</v>
+      </c>
       <c r="D551" t="s">
         <v>729</v>
       </c>
@@ -15887,6 +17205,12 @@
       <c r="A552" t="s">
         <v>730</v>
       </c>
+      <c r="B552" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C552" t="s">
+        <v>3009</v>
+      </c>
       <c r="D552" t="s">
         <v>731</v>
       </c>
@@ -15895,6 +17219,12 @@
       <c r="A553" t="s">
         <v>732</v>
       </c>
+      <c r="B553" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C553" t="s">
+        <v>3117</v>
+      </c>
       <c r="D553" t="s">
         <v>733</v>
       </c>
@@ -15903,6 +17233,12 @@
       <c r="A554" t="s">
         <v>734</v>
       </c>
+      <c r="B554" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C554" t="s">
+        <v>3010</v>
+      </c>
       <c r="D554" t="s">
         <v>735</v>
       </c>
@@ -15911,6 +17247,12 @@
       <c r="A555" t="s">
         <v>736</v>
       </c>
+      <c r="B555" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C555" t="s">
+        <v>3011</v>
+      </c>
       <c r="D555" t="s">
         <v>737</v>
       </c>
@@ -15927,6 +17269,12 @@
       <c r="A557" t="s">
         <v>740</v>
       </c>
+      <c r="B557" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C557" t="s">
+        <v>3013</v>
+      </c>
       <c r="D557" t="s">
         <v>741</v>
       </c>
@@ -15935,6 +17283,12 @@
       <c r="A558" t="s">
         <v>742</v>
       </c>
+      <c r="B558" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C558" t="s">
+        <v>3014</v>
+      </c>
       <c r="D558" t="s">
         <v>743</v>
       </c>
@@ -15943,6 +17297,12 @@
       <c r="A559" t="s">
         <v>744</v>
       </c>
+      <c r="B559" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C559" t="s">
+        <v>2868</v>
+      </c>
       <c r="D559" t="s">
         <v>745</v>
       </c>
@@ -15951,6 +17311,12 @@
       <c r="A560" t="s">
         <v>746</v>
       </c>
+      <c r="B560" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C560" t="s">
+        <v>2869</v>
+      </c>
       <c r="D560" t="s">
         <v>747</v>
       </c>
@@ -15959,6 +17325,12 @@
       <c r="A561" t="s">
         <v>748</v>
       </c>
+      <c r="B561" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C561" t="s">
+        <v>3015</v>
+      </c>
       <c r="D561" t="s">
         <v>749</v>
       </c>
@@ -15967,6 +17339,12 @@
       <c r="A562" t="s">
         <v>750</v>
       </c>
+      <c r="B562" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C562" t="s">
+        <v>3118</v>
+      </c>
       <c r="D562" t="s">
         <v>751</v>
       </c>
@@ -15975,6 +17353,12 @@
       <c r="A563" t="s">
         <v>752</v>
       </c>
+      <c r="B563" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C563" t="s">
+        <v>3017</v>
+      </c>
       <c r="D563" t="s">
         <v>753</v>
       </c>
@@ -15983,6 +17367,12 @@
       <c r="A564" t="s">
         <v>754</v>
       </c>
+      <c r="B564" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C564" t="s">
+        <v>3019</v>
+      </c>
       <c r="D564" t="s">
         <v>755</v>
       </c>
@@ -15991,6 +17381,12 @@
       <c r="A565" t="s">
         <v>756</v>
       </c>
+      <c r="B565" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C565" t="s">
+        <v>3020</v>
+      </c>
       <c r="D565" t="s">
         <v>757</v>
       </c>
@@ -15999,6 +17395,12 @@
       <c r="A566" t="s">
         <v>758</v>
       </c>
+      <c r="B566" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C566" t="s">
+        <v>3021</v>
+      </c>
       <c r="D566" t="s">
         <v>759</v>
       </c>
@@ -16015,6 +17417,12 @@
       <c r="A568" t="s">
         <v>762</v>
       </c>
+      <c r="B568" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C568" t="s">
+        <v>2883</v>
+      </c>
       <c r="D568" t="s">
         <v>763</v>
       </c>
@@ -16023,6 +17431,12 @@
       <c r="A569" t="s">
         <v>764</v>
       </c>
+      <c r="B569" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C569" t="s">
+        <v>2884</v>
+      </c>
       <c r="D569" t="s">
         <v>765</v>
       </c>
@@ -16031,6 +17445,12 @@
       <c r="A570" t="s">
         <v>766</v>
       </c>
+      <c r="B570" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C570" t="s">
+        <v>2887</v>
+      </c>
       <c r="D570" t="s">
         <v>767</v>
       </c>
@@ -16039,6 +17459,12 @@
       <c r="A571" t="s">
         <v>768</v>
       </c>
+      <c r="B571" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C571" t="s">
+        <v>2888</v>
+      </c>
       <c r="D571" t="s">
         <v>769</v>
       </c>
@@ -16047,6 +17473,12 @@
       <c r="A572" t="s">
         <v>770</v>
       </c>
+      <c r="B572" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C572" t="s">
+        <v>2890</v>
+      </c>
       <c r="D572" t="s">
         <v>771</v>
       </c>
@@ -16055,6 +17487,12 @@
       <c r="A573" t="s">
         <v>772</v>
       </c>
+      <c r="B573" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C573" t="s">
+        <v>2891</v>
+      </c>
       <c r="D573" t="s">
         <v>773</v>
       </c>
@@ -16063,6 +17501,12 @@
       <c r="A574" t="s">
         <v>774</v>
       </c>
+      <c r="B574" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2892</v>
+      </c>
       <c r="D574" t="s">
         <v>775</v>
       </c>
@@ -16071,6 +17515,12 @@
       <c r="A575" t="s">
         <v>776</v>
       </c>
+      <c r="B575" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C575" t="s">
+        <v>3023</v>
+      </c>
       <c r="D575" t="s">
         <v>777</v>
       </c>
@@ -16087,6 +17537,12 @@
       <c r="A577" t="s">
         <v>780</v>
       </c>
+      <c r="B577" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C577" t="s">
+        <v>3025</v>
+      </c>
       <c r="D577" t="s">
         <v>781</v>
       </c>
@@ -16095,6 +17551,12 @@
       <c r="A578" t="s">
         <v>782</v>
       </c>
+      <c r="B578" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C578" t="s">
+        <v>3028</v>
+      </c>
       <c r="D578" t="s">
         <v>783</v>
       </c>
@@ -16103,6 +17565,12 @@
       <c r="A579" t="s">
         <v>784</v>
       </c>
+      <c r="B579" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C579" t="s">
+        <v>2908</v>
+      </c>
       <c r="D579" t="s">
         <v>785</v>
       </c>
@@ -16111,6 +17579,12 @@
       <c r="A580" t="s">
         <v>786</v>
       </c>
+      <c r="B580" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C580" t="s">
+        <v>2910</v>
+      </c>
       <c r="D580" t="s">
         <v>787</v>
       </c>
@@ -16119,6 +17593,12 @@
       <c r="A581" t="s">
         <v>788</v>
       </c>
+      <c r="B581" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C581" t="s">
+        <v>2913</v>
+      </c>
       <c r="D581" t="s">
         <v>789</v>
       </c>
@@ -16127,6 +17607,12 @@
       <c r="A582" t="s">
         <v>790</v>
       </c>
+      <c r="B582" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C582" t="s">
+        <v>3031</v>
+      </c>
       <c r="D582" t="s">
         <v>791</v>
       </c>
@@ -16135,6 +17621,12 @@
       <c r="A583" t="s">
         <v>792</v>
       </c>
+      <c r="B583" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C583" t="s">
+        <v>3032</v>
+      </c>
       <c r="D583" t="s">
         <v>793</v>
       </c>
@@ -16143,6 +17635,12 @@
       <c r="A584" t="s">
         <v>794</v>
       </c>
+      <c r="B584" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C584" t="s">
+        <v>3033</v>
+      </c>
       <c r="D584" t="s">
         <v>795</v>
       </c>
@@ -16151,6 +17649,12 @@
       <c r="A585" t="s">
         <v>796</v>
       </c>
+      <c r="B585" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2918</v>
+      </c>
       <c r="D585" t="s">
         <v>797</v>
       </c>
@@ -16159,6 +17663,12 @@
       <c r="A586" t="s">
         <v>798</v>
       </c>
+      <c r="B586" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C586" t="s">
+        <v>2919</v>
+      </c>
       <c r="D586" t="s">
         <v>799</v>
       </c>
@@ -16167,6 +17677,12 @@
       <c r="A587" t="s">
         <v>800</v>
       </c>
+      <c r="B587" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C587" t="s">
+        <v>3035</v>
+      </c>
       <c r="D587" t="s">
         <v>801</v>
       </c>
@@ -16175,6 +17691,12 @@
       <c r="A588" t="s">
         <v>802</v>
       </c>
+      <c r="B588" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C588" t="s">
+        <v>3034</v>
+      </c>
       <c r="D588" t="s">
         <v>803</v>
       </c>
@@ -16183,6 +17705,12 @@
       <c r="A589" t="s">
         <v>804</v>
       </c>
+      <c r="B589" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C589" t="s">
+        <v>3036</v>
+      </c>
       <c r="D589" t="s">
         <v>805</v>
       </c>
@@ -16191,6 +17719,12 @@
       <c r="A590" t="s">
         <v>806</v>
       </c>
+      <c r="B590" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C590" t="s">
+        <v>3037</v>
+      </c>
       <c r="D590" t="s">
         <v>807</v>
       </c>
@@ -16199,6 +17733,12 @@
       <c r="A591" t="s">
         <v>808</v>
       </c>
+      <c r="B591" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C591" t="s">
+        <v>3038</v>
+      </c>
       <c r="D591" t="s">
         <v>809</v>
       </c>
@@ -16207,6 +17747,12 @@
       <c r="A592" t="s">
         <v>810</v>
       </c>
+      <c r="B592" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C592" t="s">
+        <v>2927</v>
+      </c>
       <c r="D592" t="s">
         <v>811</v>
       </c>
@@ -16215,6 +17761,12 @@
       <c r="A593" t="s">
         <v>812</v>
       </c>
+      <c r="B593" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C593" t="s">
+        <v>2933</v>
+      </c>
       <c r="D593" t="s">
         <v>813</v>
       </c>
@@ -16223,6 +17775,12 @@
       <c r="A594" t="s">
         <v>814</v>
       </c>
+      <c r="B594" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C594" t="s">
+        <v>2934</v>
+      </c>
       <c r="D594" t="s">
         <v>815</v>
       </c>
@@ -16231,6 +17789,12 @@
       <c r="A595" t="s">
         <v>816</v>
       </c>
+      <c r="B595" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C595" t="s">
+        <v>2935</v>
+      </c>
       <c r="D595" t="s">
         <v>817</v>
       </c>
@@ -16239,6 +17803,12 @@
       <c r="A596" t="s">
         <v>818</v>
       </c>
+      <c r="B596" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C596" t="s">
+        <v>2936</v>
+      </c>
       <c r="D596" t="s">
         <v>819</v>
       </c>
@@ -16247,6 +17817,12 @@
       <c r="A597" t="s">
         <v>820</v>
       </c>
+      <c r="B597" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C597" t="s">
+        <v>3041</v>
+      </c>
       <c r="D597" t="s">
         <v>821</v>
       </c>
@@ -16269,6 +17845,12 @@
       <c r="A599" t="s">
         <v>824</v>
       </c>
+      <c r="B599" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C599" t="s">
+        <v>3043</v>
+      </c>
       <c r="D599" t="s">
         <v>825</v>
       </c>
@@ -16277,6 +17859,12 @@
       <c r="A600" t="s">
         <v>826</v>
       </c>
+      <c r="B600" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C600" t="s">
+        <v>2941</v>
+      </c>
       <c r="D600" t="s">
         <v>827</v>
       </c>
@@ -16285,6 +17873,12 @@
       <c r="A601" t="s">
         <v>828</v>
       </c>
+      <c r="B601" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C601" t="s">
+        <v>2942</v>
+      </c>
       <c r="D601" t="s">
         <v>829</v>
       </c>
@@ -16293,6 +17887,12 @@
       <c r="A602" t="s">
         <v>830</v>
       </c>
+      <c r="B602" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C602" t="s">
+        <v>3044</v>
+      </c>
       <c r="D602" t="s">
         <v>831</v>
       </c>
@@ -16301,6 +17901,12 @@
       <c r="A603" t="s">
         <v>832</v>
       </c>
+      <c r="B603" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C603" t="s">
+        <v>2948</v>
+      </c>
       <c r="D603" t="s">
         <v>833</v>
       </c>
@@ -16309,6 +17915,12 @@
       <c r="A604" t="s">
         <v>834</v>
       </c>
+      <c r="B604" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C604" t="s">
+        <v>2951</v>
+      </c>
       <c r="D604" t="s">
         <v>835</v>
       </c>
@@ -16317,6 +17929,12 @@
       <c r="A605" t="s">
         <v>836</v>
       </c>
+      <c r="B605" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C605" t="s">
+        <v>3119</v>
+      </c>
       <c r="D605" t="s">
         <v>837</v>
       </c>
@@ -16325,6 +17943,12 @@
       <c r="A606" t="s">
         <v>838</v>
       </c>
+      <c r="B606" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C606" t="s">
+        <v>2955</v>
+      </c>
       <c r="D606" t="s">
         <v>839</v>
       </c>
@@ -16333,6 +17957,12 @@
       <c r="A607" t="s">
         <v>840</v>
       </c>
+      <c r="B607" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C607" t="s">
+        <v>3048</v>
+      </c>
       <c r="D607" t="s">
         <v>841</v>
       </c>
@@ -16341,6 +17971,12 @@
       <c r="A608" t="s">
         <v>842</v>
       </c>
+      <c r="B608" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C608" t="s">
+        <v>2959</v>
+      </c>
       <c r="D608" t="s">
         <v>843</v>
       </c>
@@ -16349,6 +17985,12 @@
       <c r="A609" t="s">
         <v>844</v>
       </c>
+      <c r="B609" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C609" t="s">
+        <v>2961</v>
+      </c>
       <c r="D609" t="s">
         <v>845</v>
       </c>
@@ -16357,6 +17999,12 @@
       <c r="A610" t="s">
         <v>846</v>
       </c>
+      <c r="B610" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C610" t="s">
+        <v>2963</v>
+      </c>
       <c r="D610" t="s">
         <v>847</v>
       </c>
@@ -16365,6 +18013,12 @@
       <c r="A611" t="s">
         <v>848</v>
       </c>
+      <c r="B611" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C611" t="s">
+        <v>2964</v>
+      </c>
       <c r="D611" t="s">
         <v>849</v>
       </c>
@@ -16373,6 +18027,12 @@
       <c r="A612" t="s">
         <v>850</v>
       </c>
+      <c r="B612" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C612" t="s">
+        <v>2965</v>
+      </c>
       <c r="D612" t="s">
         <v>851</v>
       </c>
@@ -16381,6 +18041,12 @@
       <c r="A613" t="s">
         <v>852</v>
       </c>
+      <c r="B613" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C613" t="s">
+        <v>3049</v>
+      </c>
       <c r="D613" t="s">
         <v>853</v>
       </c>
@@ -16389,6 +18055,12 @@
       <c r="A614" t="s">
         <v>854</v>
       </c>
+      <c r="B614" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C614" t="s">
+        <v>2976</v>
+      </c>
       <c r="D614" t="s">
         <v>855</v>
       </c>
@@ -16397,6 +18069,12 @@
       <c r="A615" t="s">
         <v>856</v>
       </c>
+      <c r="B615" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C615" t="s">
+        <v>2968</v>
+      </c>
       <c r="D615" t="s">
         <v>857</v>
       </c>
@@ -16405,6 +18083,12 @@
       <c r="A616" t="s">
         <v>858</v>
       </c>
+      <c r="B616" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C616" t="s">
+        <v>3022</v>
+      </c>
       <c r="D616" t="s">
         <v>859</v>
       </c>
@@ -16413,6 +18097,12 @@
       <c r="A617" t="s">
         <v>860</v>
       </c>
+      <c r="B617" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C617" t="s">
+        <v>2974</v>
+      </c>
       <c r="D617" t="s">
         <v>861</v>
       </c>
@@ -16421,6 +18111,12 @@
       <c r="A618" t="s">
         <v>862</v>
       </c>
+      <c r="B618" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C618" t="s">
+        <v>2975</v>
+      </c>
       <c r="D618" t="s">
         <v>863</v>
       </c>
@@ -16429,6 +18125,12 @@
       <c r="A619" t="s">
         <v>864</v>
       </c>
+      <c r="B619" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C619" t="s">
+        <v>3120</v>
+      </c>
       <c r="D619" t="s">
         <v>865</v>
       </c>
@@ -16437,6 +18139,12 @@
       <c r="A620" t="s">
         <v>866</v>
       </c>
+      <c r="B620" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C620" t="s">
+        <v>2969</v>
+      </c>
       <c r="D620" t="s">
         <v>867</v>
       </c>
@@ -16445,6 +18153,12 @@
       <c r="A621" t="s">
         <v>868</v>
       </c>
+      <c r="B621" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C621" t="s">
+        <v>2970</v>
+      </c>
       <c r="D621" t="s">
         <v>869</v>
       </c>
@@ -16453,6 +18167,12 @@
       <c r="A622" t="s">
         <v>870</v>
       </c>
+      <c r="B622" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C622" t="s">
+        <v>2971</v>
+      </c>
       <c r="D622" t="s">
         <v>871</v>
       </c>
@@ -16461,6 +18181,12 @@
       <c r="A623" t="s">
         <v>872</v>
       </c>
+      <c r="B623" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C623" t="s">
+        <v>2972</v>
+      </c>
       <c r="D623" t="s">
         <v>873</v>
       </c>
@@ -16469,6 +18195,12 @@
       <c r="A624" t="s">
         <v>874</v>
       </c>
+      <c r="B624" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C624" t="s">
+        <v>2973</v>
+      </c>
       <c r="D624" t="s">
         <v>875</v>
       </c>
@@ -16477,6 +18209,12 @@
       <c r="A625" t="s">
         <v>876</v>
       </c>
+      <c r="B625" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C625" t="s">
+        <v>2995</v>
+      </c>
       <c r="D625" t="s">
         <v>877</v>
       </c>
@@ -16485,6 +18223,12 @@
       <c r="A626" t="s">
         <v>878</v>
       </c>
+      <c r="B626" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C626" t="s">
+        <v>2998</v>
+      </c>
       <c r="D626" t="s">
         <v>879</v>
       </c>
@@ -16493,6 +18237,12 @@
       <c r="A627" t="s">
         <v>880</v>
       </c>
+      <c r="B627" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C627" t="s">
+        <v>2827</v>
+      </c>
       <c r="D627" t="s">
         <v>881</v>
       </c>
@@ -16501,6 +18251,12 @@
       <c r="A628" t="s">
         <v>882</v>
       </c>
+      <c r="B628" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C628" t="s">
+        <v>2831</v>
+      </c>
       <c r="D628" t="s">
         <v>883</v>
       </c>
@@ -16509,6 +18265,12 @@
       <c r="A629" t="s">
         <v>884</v>
       </c>
+      <c r="B629" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C629" t="s">
+        <v>2832</v>
+      </c>
       <c r="D629" t="s">
         <v>885</v>
       </c>
@@ -16517,6 +18279,12 @@
       <c r="A630" t="s">
         <v>886</v>
       </c>
+      <c r="B630" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C630" t="s">
+        <v>2833</v>
+      </c>
       <c r="D630" t="s">
         <v>887</v>
       </c>
@@ -16525,6 +18293,12 @@
       <c r="A631" t="s">
         <v>888</v>
       </c>
+      <c r="B631" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C631" t="s">
+        <v>3008</v>
+      </c>
       <c r="D631" t="s">
         <v>889</v>
       </c>
@@ -16533,6 +18307,12 @@
       <c r="A632" t="s">
         <v>890</v>
       </c>
+      <c r="B632" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C632" t="s">
+        <v>2867</v>
+      </c>
       <c r="D632" t="s">
         <v>891</v>
       </c>
@@ -16549,6 +18329,12 @@
       <c r="A634" t="s">
         <v>894</v>
       </c>
+      <c r="B634" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C634" t="s">
+        <v>2881</v>
+      </c>
       <c r="D634" t="s">
         <v>895</v>
       </c>
@@ -16557,6 +18343,12 @@
       <c r="A635" t="s">
         <v>896</v>
       </c>
+      <c r="B635" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C635" t="s">
+        <v>2930</v>
+      </c>
       <c r="D635" t="s">
         <v>897</v>
       </c>
@@ -16581,6 +18373,12 @@
       <c r="A638" t="s">
         <v>902</v>
       </c>
+      <c r="B638" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C638" t="s">
+        <v>3121</v>
+      </c>
       <c r="D638" t="s">
         <v>903</v>
       </c>
@@ -16589,6 +18387,12 @@
       <c r="A639" t="s">
         <v>904</v>
       </c>
+      <c r="B639" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C639" t="s">
+        <v>3122</v>
+      </c>
       <c r="D639" t="s">
         <v>905</v>
       </c>
@@ -16597,6 +18401,12 @@
       <c r="A640" t="s">
         <v>906</v>
       </c>
+      <c r="B640" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C640" t="s">
+        <v>3009</v>
+      </c>
       <c r="D640" t="s">
         <v>907</v>
       </c>
@@ -16613,6 +18423,12 @@
       <c r="A642" t="s">
         <v>910</v>
       </c>
+      <c r="B642" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C642" t="s">
+        <v>3123</v>
+      </c>
       <c r="D642" t="s">
         <v>911</v>
       </c>
@@ -16621,6 +18437,12 @@
       <c r="A643" t="s">
         <v>912</v>
       </c>
+      <c r="B643" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C643" t="s">
+        <v>3124</v>
+      </c>
       <c r="D643" t="s">
         <v>913</v>
       </c>
@@ -16629,6 +18451,12 @@
       <c r="A644" t="s">
         <v>914</v>
       </c>
+      <c r="B644" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C644" t="s">
+        <v>3125</v>
+      </c>
       <c r="D644" t="s">
         <v>915</v>
       </c>
@@ -16645,6 +18473,12 @@
       <c r="A646" t="s">
         <v>918</v>
       </c>
+      <c r="B646" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C646" t="s">
+        <v>3058</v>
+      </c>
       <c r="D646" t="s">
         <v>919</v>
       </c>
@@ -16653,6 +18487,12 @@
       <c r="A647" t="s">
         <v>920</v>
       </c>
+      <c r="B647" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C647" t="s">
+        <v>3058</v>
+      </c>
       <c r="D647" t="s">
         <v>921</v>
       </c>
@@ -16669,6 +18509,12 @@
       <c r="A649" t="s">
         <v>924</v>
       </c>
+      <c r="B649" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C649" t="s">
+        <v>3126</v>
+      </c>
       <c r="D649" t="s">
         <v>925</v>
       </c>
@@ -16677,6 +18523,12 @@
       <c r="A650" t="s">
         <v>926</v>
       </c>
+      <c r="B650" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C650" t="s">
+        <v>3127</v>
+      </c>
       <c r="D650" t="s">
         <v>927</v>
       </c>
@@ -16685,6 +18537,12 @@
       <c r="A651" t="s">
         <v>928</v>
       </c>
+      <c r="B651" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C651" t="s">
+        <v>3047</v>
+      </c>
       <c r="D651" t="s">
         <v>929</v>
       </c>
@@ -16693,6 +18551,12 @@
       <c r="A652" t="s">
         <v>930</v>
       </c>
+      <c r="B652" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C652" t="s">
+        <v>3053</v>
+      </c>
       <c r="D652" t="s">
         <v>931</v>
       </c>
@@ -16701,6 +18565,12 @@
       <c r="A653" t="s">
         <v>932</v>
       </c>
+      <c r="B653" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C653" t="s">
+        <v>3003</v>
+      </c>
       <c r="D653" t="s">
         <v>933</v>
       </c>
@@ -16717,6 +18587,12 @@
       <c r="A655" t="s">
         <v>936</v>
       </c>
+      <c r="B655" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C655" t="s">
+        <v>3128</v>
+      </c>
       <c r="D655" t="s">
         <v>937</v>
       </c>
@@ -16733,6 +18609,12 @@
       <c r="A657" t="s">
         <v>940</v>
       </c>
+      <c r="B657" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3127</v>
+      </c>
       <c r="D657" t="s">
         <v>941</v>
       </c>
@@ -16741,6 +18623,12 @@
       <c r="A658" t="s">
         <v>942</v>
       </c>
+      <c r="B658" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C658" t="s">
+        <v>3129</v>
+      </c>
       <c r="D658" t="s">
         <v>943</v>
       </c>
@@ -16749,6 +18637,12 @@
       <c r="A659" t="s">
         <v>944</v>
       </c>
+      <c r="B659" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C659" t="s">
+        <v>3129</v>
+      </c>
       <c r="D659" t="s">
         <v>945</v>
       </c>
@@ -16757,6 +18651,12 @@
       <c r="A660" t="s">
         <v>946</v>
       </c>
+      <c r="B660" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C660" t="s">
+        <v>3130</v>
+      </c>
       <c r="D660" t="s">
         <v>947</v>
       </c>
@@ -16765,6 +18665,12 @@
       <c r="A661" t="s">
         <v>948</v>
       </c>
+      <c r="B661" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C661" t="s">
+        <v>3131</v>
+      </c>
       <c r="D661" t="s">
         <v>949</v>
       </c>
@@ -16773,6 +18679,12 @@
       <c r="A662" t="s">
         <v>950</v>
       </c>
+      <c r="B662" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C662" t="s">
+        <v>3132</v>
+      </c>
       <c r="D662" t="s">
         <v>951</v>
       </c>
@@ -16781,6 +18693,12 @@
       <c r="A663" t="s">
         <v>952</v>
       </c>
+      <c r="B663" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C663" t="s">
+        <v>3133</v>
+      </c>
       <c r="D663" t="s">
         <v>953</v>
       </c>
@@ -16797,6 +18715,12 @@
       <c r="A665" t="s">
         <v>956</v>
       </c>
+      <c r="B665" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C665" t="s">
+        <v>3134</v>
+      </c>
       <c r="D665" t="s">
         <v>957</v>
       </c>
@@ -16813,6 +18737,12 @@
       <c r="A667" t="s">
         <v>960</v>
       </c>
+      <c r="B667" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C667" t="s">
+        <v>3135</v>
+      </c>
       <c r="D667" t="s">
         <v>961</v>
       </c>
@@ -16829,6 +18759,12 @@
       <c r="A669" t="s">
         <v>964</v>
       </c>
+      <c r="B669" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C669" t="s">
+        <v>3136</v>
+      </c>
       <c r="D669" t="s">
         <v>965</v>
       </c>
@@ -16837,6 +18773,12 @@
       <c r="A670" t="s">
         <v>966</v>
       </c>
+      <c r="B670" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C670" t="s">
+        <v>3137</v>
+      </c>
       <c r="D670" t="s">
         <v>967</v>
       </c>
@@ -16845,6 +18787,12 @@
       <c r="A671" t="s">
         <v>968</v>
       </c>
+      <c r="B671" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C671" t="s">
+        <v>51</v>
+      </c>
       <c r="D671" t="s">
         <v>969</v>
       </c>
@@ -16853,6 +18801,12 @@
       <c r="A672" t="s">
         <v>970</v>
       </c>
+      <c r="B672" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C672" t="s">
+        <v>48</v>
+      </c>
       <c r="D672" t="s">
         <v>971</v>
       </c>
@@ -16861,6 +18815,12 @@
       <c r="A673" t="s">
         <v>972</v>
       </c>
+      <c r="B673" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2756</v>
+      </c>
       <c r="D673" t="s">
         <v>973</v>
       </c>
@@ -16869,6 +18829,12 @@
       <c r="A674" t="s">
         <v>974</v>
       </c>
+      <c r="B674" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C674" t="s">
+        <v>3138</v>
+      </c>
       <c r="D674" t="s">
         <v>975</v>
       </c>
@@ -16877,6 +18843,12 @@
       <c r="A675" t="s">
         <v>976</v>
       </c>
+      <c r="B675" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C675" t="s">
+        <v>3139</v>
+      </c>
       <c r="D675" t="s">
         <v>977</v>
       </c>
@@ -16885,6 +18857,12 @@
       <c r="A676" t="s">
         <v>978</v>
       </c>
+      <c r="B676" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C676" t="s">
+        <v>3140</v>
+      </c>
       <c r="D676" t="s">
         <v>979</v>
       </c>
@@ -16901,6 +18879,12 @@
       <c r="A678" t="s">
         <v>982</v>
       </c>
+      <c r="B678" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C678" t="s">
+        <v>3141</v>
+      </c>
       <c r="D678" t="s">
         <v>983</v>
       </c>
@@ -16909,6 +18893,12 @@
       <c r="A679" t="s">
         <v>984</v>
       </c>
+      <c r="B679" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C679" t="s">
+        <v>3058</v>
+      </c>
       <c r="D679" t="s">
         <v>985</v>
       </c>
@@ -16981,6 +18971,12 @@
       <c r="A688" t="s">
         <v>1002</v>
       </c>
+      <c r="B688" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C688" t="s">
+        <v>3134</v>
+      </c>
       <c r="D688" t="s">
         <v>1003</v>
       </c>
@@ -16997,6 +18993,12 @@
       <c r="A690" t="s">
         <v>1006</v>
       </c>
+      <c r="B690" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C690" t="s">
+        <v>3142</v>
+      </c>
       <c r="D690" t="s">
         <v>1007</v>
       </c>
@@ -17013,6 +19015,12 @@
       <c r="A692" t="s">
         <v>1010</v>
       </c>
+      <c r="B692" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C692" t="s">
+        <v>3143</v>
+      </c>
       <c r="D692" t="s">
         <v>1011</v>
       </c>
@@ -17029,6 +19037,12 @@
       <c r="A694" t="s">
         <v>1014</v>
       </c>
+      <c r="B694" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C694" t="s">
+        <v>2846</v>
+      </c>
       <c r="D694" t="s">
         <v>1015</v>
       </c>
@@ -17037,6 +19051,12 @@
       <c r="A695" t="s">
         <v>1016</v>
       </c>
+      <c r="B695" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C695" t="s">
+        <v>3003</v>
+      </c>
       <c r="D695" t="s">
         <v>1017</v>
       </c>
@@ -17045,6 +19065,12 @@
       <c r="A696" t="s">
         <v>1018</v>
       </c>
+      <c r="B696" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C696" t="s">
+        <v>3144</v>
+      </c>
       <c r="D696" t="s">
         <v>1019</v>
       </c>
@@ -17117,6 +19143,12 @@
       <c r="A705" t="s">
         <v>1036</v>
       </c>
+      <c r="B705" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C705" t="s">
+        <v>3145</v>
+      </c>
       <c r="D705" t="s">
         <v>1037</v>
       </c>
@@ -17125,6 +19157,12 @@
       <c r="A706" t="s">
         <v>1038</v>
       </c>
+      <c r="B706" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C706" t="s">
+        <v>3146</v>
+      </c>
       <c r="D706" t="s">
         <v>1039</v>
       </c>
@@ -17133,6 +19171,12 @@
       <c r="A707" t="s">
         <v>1040</v>
       </c>
+      <c r="B707" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C707" t="s">
+        <v>3066</v>
+      </c>
       <c r="D707" t="s">
         <v>1041</v>
       </c>
@@ -17141,6 +19185,12 @@
       <c r="A708" t="s">
         <v>1042</v>
       </c>
+      <c r="B708" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C708" t="s">
+        <v>3067</v>
+      </c>
       <c r="D708" t="s">
         <v>1043</v>
       </c>
@@ -17149,6 +19199,12 @@
       <c r="A709" t="s">
         <v>1044</v>
       </c>
+      <c r="B709" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C709" t="s">
+        <v>3145</v>
+      </c>
       <c r="D709" t="s">
         <v>1045</v>
       </c>
@@ -17157,6 +19213,12 @@
       <c r="A710" t="s">
         <v>1046</v>
       </c>
+      <c r="B710" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C710" t="s">
+        <v>3146</v>
+      </c>
       <c r="D710" t="s">
         <v>1047</v>
       </c>
@@ -17165,6 +19227,12 @@
       <c r="A711" t="s">
         <v>1048</v>
       </c>
+      <c r="B711" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C711" t="s">
+        <v>3066</v>
+      </c>
       <c r="D711" t="s">
         <v>1049</v>
       </c>
@@ -17173,6 +19241,12 @@
       <c r="A712" t="s">
         <v>1050</v>
       </c>
+      <c r="B712" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C712" t="s">
+        <v>3067</v>
+      </c>
       <c r="D712" t="s">
         <v>1051</v>
       </c>
@@ -17213,6 +19287,12 @@
       <c r="A717" t="s">
         <v>1060</v>
       </c>
+      <c r="B717" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C717" t="s">
+        <v>2732</v>
+      </c>
       <c r="D717" t="s">
         <v>1061</v>
       </c>
@@ -17221,6 +19301,12 @@
       <c r="A718" t="s">
         <v>1062</v>
       </c>
+      <c r="B718" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C718" t="s">
+        <v>3020</v>
+      </c>
       <c r="D718" t="s">
         <v>1063</v>
       </c>
@@ -17379,6 +19465,12 @@
       <c r="A737" t="s">
         <v>1100</v>
       </c>
+      <c r="B737" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C737" t="s">
+        <v>3147</v>
+      </c>
       <c r="D737" t="s">
         <v>1101</v>
       </c>
@@ -17387,6 +19479,12 @@
       <c r="A738" t="s">
         <v>1102</v>
       </c>
+      <c r="B738" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C738" t="s">
+        <v>3148</v>
+      </c>
       <c r="D738" t="s">
         <v>1103</v>
       </c>
@@ -17395,6 +19493,12 @@
       <c r="A739" t="s">
         <v>1104</v>
       </c>
+      <c r="B739" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C739" t="s">
+        <v>3007</v>
+      </c>
       <c r="D739" t="s">
         <v>1105</v>
       </c>
@@ -17403,6 +19507,12 @@
       <c r="A740" t="s">
         <v>1106</v>
       </c>
+      <c r="B740" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C740" t="s">
+        <v>3007</v>
+      </c>
       <c r="D740" t="s">
         <v>1107</v>
       </c>
@@ -17427,6 +19537,12 @@
       <c r="A743" t="s">
         <v>1112</v>
       </c>
+      <c r="B743" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C743" t="s">
+        <v>3149</v>
+      </c>
       <c r="D743" t="s">
         <v>1113</v>
       </c>
@@ -17443,6 +19559,12 @@
       <c r="A745" t="s">
         <v>1116</v>
       </c>
+      <c r="B745" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C745" t="s">
+        <v>3150</v>
+      </c>
       <c r="D745" t="s">
         <v>1117</v>
       </c>
@@ -17483,6 +19605,12 @@
       <c r="A750" t="s">
         <v>1126</v>
       </c>
+      <c r="B750" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2749</v>
+      </c>
       <c r="D750" t="s">
         <v>1127</v>
       </c>
@@ -17499,6 +19627,12 @@
       <c r="A752" t="s">
         <v>1130</v>
       </c>
+      <c r="B752" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C752" t="s">
+        <v>2756</v>
+      </c>
       <c r="D752" t="s">
         <v>1131</v>
       </c>
@@ -17523,6 +19657,12 @@
       <c r="A755" t="s">
         <v>1136</v>
       </c>
+      <c r="B755" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C755" t="s">
+        <v>3105</v>
+      </c>
       <c r="D755" t="s">
         <v>1137</v>
       </c>
@@ -17531,6 +19671,12 @@
       <c r="A756" t="s">
         <v>1138</v>
       </c>
+      <c r="B756" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C756" t="s">
+        <v>3106</v>
+      </c>
       <c r="D756" t="s">
         <v>1139</v>
       </c>
@@ -17539,6 +19685,12 @@
       <c r="A757" t="s">
         <v>1140</v>
       </c>
+      <c r="B757" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C757" t="s">
+        <v>2754</v>
+      </c>
       <c r="D757" t="s">
         <v>1141</v>
       </c>
@@ -17547,6 +19699,12 @@
       <c r="A758" t="s">
         <v>1142</v>
       </c>
+      <c r="B758" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C758" t="s">
+        <v>3140</v>
+      </c>
       <c r="D758" t="s">
         <v>1143</v>
       </c>
@@ -17563,6 +19721,12 @@
       <c r="A760" t="s">
         <v>1146</v>
       </c>
+      <c r="B760" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C760" t="s">
+        <v>3141</v>
+      </c>
       <c r="D760" t="s">
         <v>1147</v>
       </c>
@@ -17571,6 +19735,12 @@
       <c r="A761" t="s">
         <v>1148</v>
       </c>
+      <c r="B761" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C761" t="s">
+        <v>3151</v>
+      </c>
       <c r="D761" t="s">
         <v>1149</v>
       </c>
@@ -17587,6 +19757,12 @@
       <c r="A763" t="s">
         <v>1152</v>
       </c>
+      <c r="B763" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C763" t="s">
+        <v>2730</v>
+      </c>
       <c r="D763" t="s">
         <v>1153</v>
       </c>
@@ -17603,6 +19779,12 @@
       <c r="A765" t="s">
         <v>1156</v>
       </c>
+      <c r="B765" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C765" t="s">
+        <v>3152</v>
+      </c>
       <c r="D765" t="s">
         <v>1157</v>
       </c>
@@ -17611,6 +19793,12 @@
       <c r="A766" t="s">
         <v>1158</v>
       </c>
+      <c r="B766" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C766" t="s">
+        <v>3138</v>
+      </c>
       <c r="D766" t="s">
         <v>1159</v>
       </c>
@@ -17619,6 +19807,12 @@
       <c r="A767" t="s">
         <v>1160</v>
       </c>
+      <c r="B767" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C767" t="s">
+        <v>3153</v>
+      </c>
       <c r="D767" t="s">
         <v>1161</v>
       </c>
@@ -17627,6 +19821,12 @@
       <c r="A768" t="s">
         <v>1162</v>
       </c>
+      <c r="B768" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C768" t="s">
+        <v>3154</v>
+      </c>
       <c r="D768" t="s">
         <v>1163</v>
       </c>
@@ -17635,6 +19835,12 @@
       <c r="A769" t="s">
         <v>1164</v>
       </c>
+      <c r="B769" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C769" t="s">
+        <v>3155</v>
+      </c>
       <c r="D769" t="s">
         <v>1165</v>
       </c>
@@ -17643,6 +19849,12 @@
       <c r="A770" t="s">
         <v>1166</v>
       </c>
+      <c r="B770" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C770" t="s">
+        <v>3065</v>
+      </c>
       <c r="D770" t="s">
         <v>1167</v>
       </c>
@@ -17675,6 +19887,12 @@
       <c r="A774" t="s">
         <v>1174</v>
       </c>
+      <c r="B774" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C774" t="s">
+        <v>3156</v>
+      </c>
       <c r="D774" t="s">
         <v>1175</v>
       </c>
@@ -17683,6 +19901,12 @@
       <c r="A775" t="s">
         <v>1176</v>
       </c>
+      <c r="B775" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C775" t="s">
+        <v>3157</v>
+      </c>
       <c r="D775" t="s">
         <v>1177</v>
       </c>
@@ -17691,6 +19915,12 @@
       <c r="A776" t="s">
         <v>1178</v>
       </c>
+      <c r="B776" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C776" t="s">
+        <v>2732</v>
+      </c>
       <c r="D776" t="s">
         <v>1179</v>
       </c>
@@ -17699,6 +19929,12 @@
       <c r="A777" t="s">
         <v>1180</v>
       </c>
+      <c r="B777" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C777" t="s">
+        <v>3039</v>
+      </c>
       <c r="D777" t="s">
         <v>1181</v>
       </c>
@@ -17715,6 +19951,12 @@
       <c r="A779" t="s">
         <v>1184</v>
       </c>
+      <c r="B779" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C779" t="s">
+        <v>3039</v>
+      </c>
       <c r="D779" t="s">
         <v>1185</v>
       </c>
@@ -17723,6 +19965,12 @@
       <c r="A780" t="s">
         <v>1186</v>
       </c>
+      <c r="B780" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C780" t="s">
+        <v>3158</v>
+      </c>
       <c r="D780" t="s">
         <v>1187</v>
       </c>
@@ -17731,6 +19979,12 @@
       <c r="A781" t="s">
         <v>1188</v>
       </c>
+      <c r="B781" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C781" t="s">
+        <v>3151</v>
+      </c>
       <c r="D781" t="s">
         <v>1189</v>
       </c>
@@ -17755,6 +20009,12 @@
       <c r="A784" t="s">
         <v>1194</v>
       </c>
+      <c r="B784" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C784" t="s">
+        <v>3038</v>
+      </c>
       <c r="D784" t="s">
         <v>1195</v>
       </c>
@@ -17763,6 +20023,12 @@
       <c r="A785" t="s">
         <v>1196</v>
       </c>
+      <c r="B785" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C785" t="s">
+        <v>3151</v>
+      </c>
       <c r="D785" t="s">
         <v>1197</v>
       </c>
@@ -17771,6 +20037,12 @@
       <c r="A786" t="s">
         <v>1198</v>
       </c>
+      <c r="B786" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C786" t="s">
+        <v>3159</v>
+      </c>
       <c r="D786" t="s">
         <v>1199</v>
       </c>
@@ -17779,6 +20051,12 @@
       <c r="A787" t="s">
         <v>1200</v>
       </c>
+      <c r="B787" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C787" t="s">
+        <v>3081</v>
+      </c>
       <c r="D787" t="s">
         <v>1201</v>
       </c>
@@ -17811,6 +20089,12 @@
       <c r="A791" t="s">
         <v>1208</v>
       </c>
+      <c r="B791" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C791" t="s">
+        <v>3081</v>
+      </c>
       <c r="D791" t="s">
         <v>1209</v>
       </c>
@@ -17859,6 +20143,12 @@
       <c r="A797" t="s">
         <v>1220</v>
       </c>
+      <c r="B797" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C797" t="s">
+        <v>2749</v>
+      </c>
       <c r="D797" t="s">
         <v>1221</v>
       </c>
@@ -17891,6 +20181,12 @@
       <c r="A801" t="s">
         <v>1228</v>
       </c>
+      <c r="B801" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C801" t="s">
+        <v>2831</v>
+      </c>
       <c r="D801" t="s">
         <v>1229</v>
       </c>
@@ -17899,6 +20195,12 @@
       <c r="A802" t="s">
         <v>1230</v>
       </c>
+      <c r="B802" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2832</v>
+      </c>
       <c r="D802" t="s">
         <v>1231</v>
       </c>
@@ -18043,6 +20345,12 @@
       <c r="A820" t="s">
         <v>1266</v>
       </c>
+      <c r="B820" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2749</v>
+      </c>
       <c r="D820" t="s">
         <v>1267</v>
       </c>
@@ -18075,6 +20383,12 @@
       <c r="A824" t="s">
         <v>1274</v>
       </c>
+      <c r="B824" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C824" t="s">
+        <v>3160</v>
+      </c>
       <c r="D824" t="s">
         <v>1275</v>
       </c>
@@ -18107,6 +20421,12 @@
       <c r="A828" t="s">
         <v>1282</v>
       </c>
+      <c r="B828" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C828" t="s">
+        <v>3100</v>
+      </c>
       <c r="D828" t="s">
         <v>1283</v>
       </c>
@@ -18147,6 +20467,12 @@
       <c r="A833" t="s">
         <v>1292</v>
       </c>
+      <c r="B833" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C833" t="s">
+        <v>3161</v>
+      </c>
       <c r="D833" t="s">
         <v>1293</v>
       </c>
@@ -18203,6 +20529,12 @@
       <c r="A840" t="s">
         <v>1306</v>
       </c>
+      <c r="B840" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C840" t="s">
+        <v>3162</v>
+      </c>
       <c r="D840" t="s">
         <v>1307</v>
       </c>
@@ -18211,6 +20543,12 @@
       <c r="A841" t="s">
         <v>1308</v>
       </c>
+      <c r="B841" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C841" t="s">
+        <v>3163</v>
+      </c>
       <c r="D841" t="s">
         <v>1309</v>
       </c>
@@ -18227,6 +20565,12 @@
       <c r="A843" t="s">
         <v>1312</v>
       </c>
+      <c r="B843" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C843" t="s">
+        <v>3164</v>
+      </c>
       <c r="D843" t="s">
         <v>1313</v>
       </c>
@@ -18275,6 +20619,12 @@
       <c r="A849" t="s">
         <v>1324</v>
       </c>
+      <c r="B849" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C849" t="s">
+        <v>3165</v>
+      </c>
       <c r="D849" t="s">
         <v>1325</v>
       </c>
@@ -18283,6 +20633,12 @@
       <c r="A850" t="s">
         <v>1326</v>
       </c>
+      <c r="B850" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C850" t="s">
+        <v>3059</v>
+      </c>
       <c r="D850" t="s">
         <v>1327</v>
       </c>
@@ -18291,6 +20647,12 @@
       <c r="A851" t="s">
         <v>1328</v>
       </c>
+      <c r="B851" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C851" t="s">
+        <v>3166</v>
+      </c>
       <c r="D851" t="s">
         <v>1329</v>
       </c>
@@ -18307,6 +20669,12 @@
       <c r="A853" t="s">
         <v>1332</v>
       </c>
+      <c r="B853" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C853" t="s">
+        <v>3167</v>
+      </c>
       <c r="D853" t="s">
         <v>1333</v>
       </c>
@@ -18331,6 +20699,12 @@
       <c r="A856" t="s">
         <v>1338</v>
       </c>
+      <c r="B856" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C856" t="s">
+        <v>3168</v>
+      </c>
       <c r="D856" t="s">
         <v>1339</v>
       </c>
@@ -18347,6 +20721,12 @@
       <c r="A858" t="s">
         <v>1342</v>
       </c>
+      <c r="B858" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C858" t="s">
+        <v>3170</v>
+      </c>
       <c r="D858" t="s">
         <v>1343</v>
       </c>
@@ -18443,6 +20823,12 @@
       <c r="A870" t="s">
         <v>1366</v>
       </c>
+      <c r="B870" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C870" t="s">
+        <v>3169</v>
+      </c>
       <c r="D870" t="s">
         <v>1367</v>
       </c>
@@ -18451,6 +20837,12 @@
       <c r="A871" t="s">
         <v>1368</v>
       </c>
+      <c r="B871" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C871" t="s">
+        <v>3169</v>
+      </c>
       <c r="D871" t="s">
         <v>1369</v>
       </c>
@@ -18723,6 +21115,12 @@
       <c r="A905" t="s">
         <v>1436</v>
       </c>
+      <c r="B905" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C905" t="s">
+        <v>3171</v>
+      </c>
       <c r="D905" t="s">
         <v>1437</v>
       </c>
@@ -18731,6 +21129,12 @@
       <c r="A906" t="s">
         <v>1438</v>
       </c>
+      <c r="B906" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C906" t="s">
+        <v>3058</v>
+      </c>
       <c r="D906" t="s">
         <v>1439</v>
       </c>
@@ -18747,6 +21151,12 @@
       <c r="A908" t="s">
         <v>1442</v>
       </c>
+      <c r="B908" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C908" t="s">
+        <v>3172</v>
+      </c>
       <c r="D908" t="s">
         <v>1443</v>
       </c>
@@ -18755,6 +21165,12 @@
       <c r="A909" t="s">
         <v>1444</v>
       </c>
+      <c r="B909" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C909" t="s">
+        <v>3173</v>
+      </c>
       <c r="D909" t="s">
         <v>1445</v>
       </c>
@@ -18763,6 +21179,12 @@
       <c r="A910" t="s">
         <v>1446</v>
       </c>
+      <c r="B910" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C910" t="s">
+        <v>3122</v>
+      </c>
       <c r="D910" t="s">
         <v>1447</v>
       </c>
@@ -19123,6 +21545,12 @@
       <c r="A955" t="s">
         <v>1536</v>
       </c>
+      <c r="B955" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C955" t="s">
+        <v>3120</v>
+      </c>
       <c r="D955" t="s">
         <v>1537</v>
       </c>
@@ -19131,6 +21559,12 @@
       <c r="A956" t="s">
         <v>1538</v>
       </c>
+      <c r="B956" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C956" t="s">
+        <v>2998</v>
+      </c>
       <c r="D956" t="s">
         <v>1539</v>
       </c>
@@ -19147,6 +21581,12 @@
       <c r="A958" t="s">
         <v>1542</v>
       </c>
+      <c r="B958" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C958" t="s">
+        <v>3174</v>
+      </c>
       <c r="D958" t="s">
         <v>1543</v>
       </c>
@@ -19155,6 +21595,12 @@
       <c r="A959" t="s">
         <v>1544</v>
       </c>
+      <c r="B959" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C959" t="s">
+        <v>2749</v>
+      </c>
       <c r="D959" t="s">
         <v>1545</v>
       </c>
@@ -19163,6 +21609,12 @@
       <c r="A960" t="s">
         <v>1546</v>
       </c>
+      <c r="B960" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C960" t="s">
+        <v>3175</v>
+      </c>
       <c r="D960" t="s">
         <v>1547</v>
       </c>
@@ -19219,6 +21671,12 @@
       <c r="A967" t="s">
         <v>1560</v>
       </c>
+      <c r="B967" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C967" t="s">
+        <v>3179</v>
+      </c>
       <c r="D967" t="s">
         <v>1561</v>
       </c>
@@ -19227,6 +21685,12 @@
       <c r="A968" t="s">
         <v>1562</v>
       </c>
+      <c r="B968" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C968" t="s">
+        <v>3176</v>
+      </c>
       <c r="D968" t="s">
         <v>1563</v>
       </c>
@@ -19235,6 +21699,12 @@
       <c r="A969" t="s">
         <v>1564</v>
       </c>
+      <c r="B969" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C969" t="s">
+        <v>3176</v>
+      </c>
       <c r="D969" t="s">
         <v>1565</v>
       </c>
@@ -19243,6 +21713,12 @@
       <c r="A970" t="s">
         <v>1566</v>
       </c>
+      <c r="B970" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C970" t="s">
+        <v>3177</v>
+      </c>
       <c r="D970" t="s">
         <v>1567</v>
       </c>
@@ -19307,6 +21783,12 @@
       <c r="A978" t="s">
         <v>1582</v>
       </c>
+      <c r="B978" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C978" t="s">
+        <v>3178</v>
+      </c>
       <c r="D978" t="s">
         <v>1583</v>
       </c>
@@ -19315,6 +21797,12 @@
       <c r="A979" t="s">
         <v>1584</v>
       </c>
+      <c r="B979" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C979" t="s">
+        <v>3178</v>
+      </c>
       <c r="D979" t="s">
         <v>1585</v>
       </c>
@@ -19331,6 +21819,12 @@
       <c r="A981" t="s">
         <v>1588</v>
       </c>
+      <c r="B981" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C981" t="s">
+        <v>3039</v>
+      </c>
       <c r="D981" t="s">
         <v>1589</v>
       </c>
@@ -19386,6 +21880,12 @@
     <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>1602</v>
+      </c>
+      <c r="B988" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C988" t="s">
+        <v>3003</v>
       </c>
       <c r="D988" t="s">
         <v>1603</v>

--- a/SegoeMDL2AssetsAlternative/font.xlsx
+++ b/SegoeMDL2AssetsAlternative/font.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_Studio\Projects\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59476048-1F7B-45E1-832F-E682EBFAA636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D59411-1C10-4FC5-99F5-33D05A5873D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Font" sheetId="1" r:id="rId1"/>
@@ -10411,8 +10411,8 @@
   <dimension ref="A1:D1553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A981" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B988" sqref="B988"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14894,7 +14894,7 @@
         <v>308</v>
       </c>
       <c r="B341" t="s">
-        <v>2992</v>
+        <v>2728</v>
       </c>
       <c r="C341" t="s">
         <v>22</v>
@@ -21784,7 +21784,7 @@
         <v>1582</v>
       </c>
       <c r="B978" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="C978" t="s">
         <v>3178</v>
@@ -21798,7 +21798,7 @@
         <v>1584</v>
       </c>
       <c r="B979" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="C979" t="s">
         <v>3178</v>

--- a/SegoeMDL2AssetsAlternative/font.xlsx
+++ b/SegoeMDL2AssetsAlternative/font.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_Studio\Projects\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D59411-1C10-4FC5-99F5-33D05A5873D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A1426-15E4-42DF-B1AF-C428BAF9E655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10412,7 +10412,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B341" sqref="B341"/>
+      <selection pane="bottomLeft" activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SegoeMDL2AssetsAlternative/font.xlsx
+++ b/SegoeMDL2AssetsAlternative/font.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_Studio\Projects\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A1426-15E4-42DF-B1AF-C428BAF9E655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E7BB8-B567-4436-BE52-FBA4AA57B3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Font" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="3180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="3208">
   <si>
     <t>Name</t>
   </si>
@@ -9568,6 +9568,90 @@
   </si>
   <si>
     <t>&amp;#xf519;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0f4;</t>
+  </si>
+  <si>
+    <t>&amp;#xf186;</t>
+  </si>
+  <si>
+    <t>&amp;#xf3fd;</t>
+  </si>
+  <si>
+    <t>&amp;#xf131;</t>
+  </si>
+  <si>
+    <t>&amp;#xf303;</t>
+  </si>
+  <si>
+    <t>&amp;#xf185;</t>
+  </si>
+  <si>
+    <t>&amp;#xf545;</t>
+  </si>
+  <si>
+    <t>&amp;#xf055;</t>
+  </si>
+  <si>
+    <t>&amp;#xf056;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0fe;</t>
+  </si>
+  <si>
+    <t>&amp;#xf029;</t>
+  </si>
+  <si>
+    <t>&amp;#xf073;</t>
+  </si>
+  <si>
+    <t>&amp;#xf7c4;</t>
+  </si>
+  <si>
+    <t>&amp;#xf599;</t>
+  </si>
+  <si>
+    <t>&amp;#xf79f;</t>
+  </si>
+  <si>
+    <t>&amp;#xf818;</t>
+  </si>
+  <si>
+    <t>&amp;#xf548;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0a0;</t>
+  </si>
+  <si>
+    <t>&amp;#xf305;</t>
+  </si>
+  <si>
+    <t>&amp;#xf5ad;</t>
+  </si>
+  <si>
+    <t>&amp;#xf406;</t>
+  </si>
+  <si>
+    <t>&amp;#xf637;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1fb;</t>
+  </si>
+  <si>
+    <t>&amp;#xf4fe;</t>
+  </si>
+  <si>
+    <t>&amp;#xf15c;</t>
+  </si>
+  <si>
+    <t>&amp;#xf86d;</t>
+  </si>
+  <si>
+    <t>&amp;#xf2db;</t>
+  </si>
+  <si>
+    <t>&amp;#xf0e8;</t>
   </si>
 </sst>
 </file>
@@ -10411,8 +10495,8 @@
   <dimension ref="A1:D1553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C325" sqref="C325"/>
+      <pane ySplit="1" topLeftCell="A1192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1208" sqref="B1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16383,6 +16467,12 @@
       <c r="A480" t="s">
         <v>586</v>
       </c>
+      <c r="B480" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C480" t="s">
+        <v>2728</v>
+      </c>
       <c r="D480" t="s">
         <v>587</v>
       </c>
@@ -19087,6 +19177,12 @@
       <c r="A698" t="s">
         <v>1022</v>
       </c>
+      <c r="B698" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C698" t="s">
+        <v>3206</v>
+      </c>
       <c r="D698" t="s">
         <v>1023</v>
       </c>
@@ -21895,6 +21991,12 @@
       <c r="A989" t="s">
         <v>1604</v>
       </c>
+      <c r="B989" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C989" t="s">
+        <v>3180</v>
+      </c>
       <c r="D989" t="s">
         <v>1605</v>
       </c>
@@ -21919,6 +22021,12 @@
       <c r="A992" t="s">
         <v>1610</v>
       </c>
+      <c r="B992" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C992" t="s">
+        <v>3111</v>
+      </c>
       <c r="D992" t="s">
         <v>1611</v>
       </c>
@@ -21935,6 +22043,12 @@
       <c r="A994" t="s">
         <v>1614</v>
       </c>
+      <c r="B994" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C994" t="s">
+        <v>3111</v>
+      </c>
       <c r="D994" t="s">
         <v>1615</v>
       </c>
@@ -21967,6 +22081,12 @@
       <c r="A998" t="s">
         <v>1622</v>
       </c>
+      <c r="B998" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C998" t="s">
+        <v>8</v>
+      </c>
       <c r="D998" t="s">
         <v>1623</v>
       </c>
@@ -21975,6 +22095,12 @@
       <c r="A999" t="s">
         <v>1624</v>
       </c>
+      <c r="B999" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C999" t="s">
+        <v>27</v>
+      </c>
       <c r="D999" t="s">
         <v>1625</v>
       </c>
@@ -21983,6 +22109,12 @@
       <c r="A1000" t="s">
         <v>1626</v>
       </c>
+      <c r="B1000" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>11</v>
+      </c>
       <c r="D1000" t="s">
         <v>1627</v>
       </c>
@@ -21991,6 +22123,12 @@
       <c r="A1001" t="s">
         <v>1628</v>
       </c>
+      <c r="B1001" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>3083</v>
+      </c>
       <c r="D1001" t="s">
         <v>1629</v>
       </c>
@@ -21999,6 +22137,12 @@
       <c r="A1002" t="s">
         <v>1630</v>
       </c>
+      <c r="B1002" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>3045</v>
+      </c>
       <c r="D1002" t="s">
         <v>1631</v>
       </c>
@@ -22023,6 +22167,12 @@
       <c r="A1005" t="s">
         <v>1636</v>
       </c>
+      <c r="B1005" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>3181</v>
+      </c>
       <c r="D1005" t="s">
         <v>1637</v>
       </c>
@@ -22031,6 +22181,12 @@
       <c r="A1006" t="s">
         <v>1638</v>
       </c>
+      <c r="B1006" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>3086</v>
+      </c>
       <c r="D1006" t="s">
         <v>1639</v>
       </c>
@@ -22055,6 +22211,12 @@
       <c r="A1009" t="s">
         <v>1644</v>
       </c>
+      <c r="B1009" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>3182</v>
+      </c>
       <c r="D1009" t="s">
         <v>1645</v>
       </c>
@@ -22071,6 +22233,12 @@
       <c r="A1011" t="s">
         <v>1648</v>
       </c>
+      <c r="B1011" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>3025</v>
+      </c>
       <c r="D1011" t="s">
         <v>1649</v>
       </c>
@@ -22095,6 +22263,12 @@
       <c r="A1014" t="s">
         <v>1654</v>
       </c>
+      <c r="B1014" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>2750</v>
+      </c>
       <c r="D1014" t="s">
         <v>1655</v>
       </c>
@@ -22103,6 +22277,12 @@
       <c r="A1015" t="s">
         <v>1656</v>
       </c>
+      <c r="B1015" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>3183</v>
+      </c>
       <c r="D1015" t="s">
         <v>1657</v>
       </c>
@@ -22207,6 +22387,12 @@
       <c r="A1028" t="s">
         <v>1682</v>
       </c>
+      <c r="B1028" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>2743</v>
+      </c>
       <c r="D1028" t="s">
         <v>1683</v>
       </c>
@@ -22255,6 +22441,12 @@
       <c r="A1034" t="s">
         <v>1694</v>
       </c>
+      <c r="B1034" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>3008</v>
+      </c>
       <c r="D1034" t="s">
         <v>1695</v>
       </c>
@@ -22279,6 +22471,12 @@
       <c r="A1037" t="s">
         <v>1700</v>
       </c>
+      <c r="B1037" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>2745</v>
+      </c>
       <c r="D1037" t="s">
         <v>1701</v>
       </c>
@@ -22295,6 +22493,12 @@
       <c r="A1039" t="s">
         <v>1704</v>
       </c>
+      <c r="B1039" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>3184</v>
+      </c>
       <c r="D1039" t="s">
         <v>1705</v>
       </c>
@@ -22311,6 +22515,12 @@
       <c r="A1041" t="s">
         <v>1708</v>
       </c>
+      <c r="B1041" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>3185</v>
+      </c>
       <c r="D1041" t="s">
         <v>1709</v>
       </c>
@@ -22351,6 +22561,12 @@
       <c r="A1046" t="s">
         <v>1718</v>
       </c>
+      <c r="B1046" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>3205</v>
+      </c>
       <c r="D1046" t="s">
         <v>1719</v>
       </c>
@@ -22367,6 +22583,12 @@
       <c r="A1048" t="s">
         <v>1722</v>
       </c>
+      <c r="B1048" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>3107</v>
+      </c>
       <c r="D1048" t="s">
         <v>1723</v>
       </c>
@@ -22375,6 +22597,12 @@
       <c r="A1049" t="s">
         <v>1724</v>
       </c>
+      <c r="B1049" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>3108</v>
+      </c>
       <c r="D1049" t="s">
         <v>1725</v>
       </c>
@@ -22383,6 +22611,12 @@
       <c r="A1050" t="s">
         <v>1726</v>
       </c>
+      <c r="B1050" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>3108</v>
+      </c>
       <c r="D1050" t="s">
         <v>1727</v>
       </c>
@@ -22391,6 +22625,12 @@
       <c r="A1051" t="s">
         <v>1728</v>
       </c>
+      <c r="B1051" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>3109</v>
+      </c>
       <c r="D1051" t="s">
         <v>1729</v>
       </c>
@@ -22399,6 +22639,12 @@
       <c r="A1052" t="s">
         <v>1730</v>
       </c>
+      <c r="B1052" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>3110</v>
+      </c>
       <c r="D1052" t="s">
         <v>1731</v>
       </c>
@@ -22407,6 +22653,12 @@
       <c r="A1053" t="s">
         <v>1732</v>
       </c>
+      <c r="B1053" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>3110</v>
+      </c>
       <c r="D1053" t="s">
         <v>1733</v>
       </c>
@@ -22415,6 +22667,12 @@
       <c r="A1054" t="s">
         <v>1734</v>
       </c>
+      <c r="B1054" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>3104</v>
+      </c>
       <c r="D1054" t="s">
         <v>1735</v>
       </c>
@@ -22431,6 +22689,12 @@
       <c r="A1056" t="s">
         <v>1738</v>
       </c>
+      <c r="B1056" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>3095</v>
+      </c>
       <c r="D1056" t="s">
         <v>1739</v>
       </c>
@@ -22439,6 +22703,12 @@
       <c r="A1057" t="s">
         <v>1740</v>
       </c>
+      <c r="B1057" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>3186</v>
+      </c>
       <c r="D1057" t="s">
         <v>1741</v>
       </c>
@@ -22447,6 +22717,12 @@
       <c r="A1058" t="s">
         <v>1742</v>
       </c>
+      <c r="B1058" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>3187</v>
+      </c>
       <c r="D1058" t="s">
         <v>1743</v>
       </c>
@@ -22455,6 +22731,12 @@
       <c r="A1059" t="s">
         <v>1744</v>
       </c>
+      <c r="B1059" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>3188</v>
+      </c>
       <c r="D1059" t="s">
         <v>1745</v>
       </c>
@@ -22463,6 +22745,12 @@
       <c r="A1060" t="s">
         <v>1746</v>
       </c>
+      <c r="B1060" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>3081</v>
+      </c>
       <c r="D1060" t="s">
         <v>1747</v>
       </c>
@@ -22487,6 +22775,12 @@
       <c r="A1063" t="s">
         <v>1752</v>
       </c>
+      <c r="B1063" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>3189</v>
+      </c>
       <c r="D1063" t="s">
         <v>1753</v>
       </c>
@@ -22495,6 +22789,12 @@
       <c r="A1064" t="s">
         <v>1754</v>
       </c>
+      <c r="B1064" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>3188</v>
+      </c>
       <c r="D1064" t="s">
         <v>1755</v>
       </c>
@@ -22559,6 +22859,12 @@
       <c r="A1072" t="s">
         <v>1770</v>
       </c>
+      <c r="B1072" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>3009</v>
+      </c>
       <c r="D1072" t="s">
         <v>1771</v>
       </c>
@@ -22591,6 +22897,12 @@
       <c r="A1076" t="s">
         <v>1778</v>
       </c>
+      <c r="B1076" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>3190</v>
+      </c>
       <c r="D1076" t="s">
         <v>1779</v>
       </c>
@@ -22599,6 +22911,12 @@
       <c r="A1077" t="s">
         <v>1780</v>
       </c>
+      <c r="B1077" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>3009</v>
+      </c>
       <c r="D1077" t="s">
         <v>1781</v>
       </c>
@@ -22631,6 +22949,12 @@
       <c r="A1081" t="s">
         <v>1788</v>
       </c>
+      <c r="B1081" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>3191</v>
+      </c>
       <c r="D1081" t="s">
         <v>1789</v>
       </c>
@@ -22639,6 +22963,12 @@
       <c r="A1082" t="s">
         <v>1790</v>
       </c>
+      <c r="B1082" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>3192</v>
+      </c>
       <c r="D1082" t="s">
         <v>1791</v>
       </c>
@@ -22671,6 +23001,12 @@
       <c r="A1086" t="s">
         <v>1798</v>
       </c>
+      <c r="B1086" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>51</v>
+      </c>
       <c r="D1086" t="s">
         <v>1799</v>
       </c>
@@ -22759,6 +23095,12 @@
       <c r="A1097" t="s">
         <v>1820</v>
       </c>
+      <c r="B1097" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>3024</v>
+      </c>
       <c r="D1097" t="s">
         <v>1821</v>
       </c>
@@ -22775,6 +23117,12 @@
       <c r="A1099" t="s">
         <v>1824</v>
       </c>
+      <c r="B1099" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>3101</v>
+      </c>
       <c r="D1099" t="s">
         <v>1825</v>
       </c>
@@ -22823,6 +23171,12 @@
       <c r="A1105" t="s">
         <v>1836</v>
       </c>
+      <c r="B1105" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>3193</v>
+      </c>
       <c r="D1105" t="s">
         <v>1837</v>
       </c>
@@ -22831,6 +23185,12 @@
       <c r="A1106" t="s">
         <v>1838</v>
       </c>
+      <c r="B1106" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>3194</v>
+      </c>
       <c r="D1106" t="s">
         <v>1839</v>
       </c>
@@ -22839,6 +23199,12 @@
       <c r="A1107" t="s">
         <v>1840</v>
       </c>
+      <c r="B1107" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>3195</v>
+      </c>
       <c r="D1107" t="s">
         <v>1841</v>
       </c>
@@ -22847,6 +23213,12 @@
       <c r="A1108" t="s">
         <v>1842</v>
       </c>
+      <c r="B1108" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3093</v>
+      </c>
       <c r="D1108" t="s">
         <v>1843</v>
       </c>
@@ -22871,6 +23243,12 @@
       <c r="A1111" t="s">
         <v>1848</v>
       </c>
+      <c r="B1111" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>2993</v>
+      </c>
       <c r="D1111" t="s">
         <v>1849</v>
       </c>
@@ -22903,6 +23281,12 @@
       <c r="A1115" t="s">
         <v>1856</v>
       </c>
+      <c r="B1115" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>3196</v>
+      </c>
       <c r="D1115" t="s">
         <v>1857</v>
       </c>
@@ -22983,6 +23367,12 @@
       <c r="A1125" t="s">
         <v>1876</v>
       </c>
+      <c r="B1125" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>3197</v>
+      </c>
       <c r="D1125" t="s">
         <v>1877</v>
       </c>
@@ -23055,6 +23445,12 @@
       <c r="A1134" t="s">
         <v>1894</v>
       </c>
+      <c r="B1134" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>2987</v>
+      </c>
       <c r="D1134" t="s">
         <v>1895</v>
       </c>
@@ -23063,6 +23459,12 @@
       <c r="A1135" t="s">
         <v>1896</v>
       </c>
+      <c r="B1135" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>3162</v>
+      </c>
       <c r="D1135" t="s">
         <v>1897</v>
       </c>
@@ -23071,6 +23473,12 @@
       <c r="A1136" t="s">
         <v>1898</v>
       </c>
+      <c r="B1136" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>3151</v>
+      </c>
       <c r="D1136" t="s">
         <v>1899</v>
       </c>
@@ -23079,6 +23487,12 @@
       <c r="A1137" t="s">
         <v>1900</v>
       </c>
+      <c r="B1137" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>51</v>
+      </c>
       <c r="D1137" t="s">
         <v>1901</v>
       </c>
@@ -23103,6 +23517,12 @@
       <c r="A1140" t="s">
         <v>1906</v>
       </c>
+      <c r="B1140" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>3019</v>
+      </c>
       <c r="D1140" t="s">
         <v>1907</v>
       </c>
@@ -23111,6 +23531,12 @@
       <c r="A1141" t="s">
         <v>1908</v>
       </c>
+      <c r="B1141" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>2733</v>
+      </c>
       <c r="D1141" t="s">
         <v>1909</v>
       </c>
@@ -23119,6 +23545,12 @@
       <c r="A1142" t="s">
         <v>1910</v>
       </c>
+      <c r="B1142" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>2980</v>
+      </c>
       <c r="D1142" t="s">
         <v>1911</v>
       </c>
@@ -23127,6 +23559,12 @@
       <c r="A1143" t="s">
         <v>1912</v>
       </c>
+      <c r="B1143" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>2979</v>
+      </c>
       <c r="D1143" t="s">
         <v>1913</v>
       </c>
@@ -23135,6 +23573,12 @@
       <c r="A1144" t="s">
         <v>1914</v>
       </c>
+      <c r="B1144" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>3198</v>
+      </c>
       <c r="D1144" t="s">
         <v>1915</v>
       </c>
@@ -23143,6 +23587,12 @@
       <c r="A1145" t="s">
         <v>1916</v>
       </c>
+      <c r="B1145" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>3132</v>
+      </c>
       <c r="D1145" t="s">
         <v>1917</v>
       </c>
@@ -23151,6 +23601,12 @@
       <c r="A1146" t="s">
         <v>1918</v>
       </c>
+      <c r="B1146" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>3133</v>
+      </c>
       <c r="D1146" t="s">
         <v>1919</v>
       </c>
@@ -23159,6 +23615,12 @@
       <c r="A1147" t="s">
         <v>1920</v>
       </c>
+      <c r="B1147" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>3132</v>
+      </c>
       <c r="D1147" t="s">
         <v>1921</v>
       </c>
@@ -23167,6 +23629,12 @@
       <c r="A1148" t="s">
         <v>1922</v>
       </c>
+      <c r="B1148" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>3130</v>
+      </c>
       <c r="D1148" t="s">
         <v>1923</v>
       </c>
@@ -23175,6 +23643,12 @@
       <c r="A1149" t="s">
         <v>1924</v>
       </c>
+      <c r="B1149" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>3131</v>
+      </c>
       <c r="D1149" t="s">
         <v>1925</v>
       </c>
@@ -23223,6 +23697,12 @@
       <c r="A1155" t="s">
         <v>1936</v>
       </c>
+      <c r="B1155" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>3199</v>
+      </c>
       <c r="D1155" t="s">
         <v>1937</v>
       </c>
@@ -23263,6 +23743,12 @@
       <c r="A1160" t="s">
         <v>1946</v>
       </c>
+      <c r="B1160" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>3198</v>
+      </c>
       <c r="D1160" t="s">
         <v>1947</v>
       </c>
@@ -23271,6 +23757,12 @@
       <c r="A1161" t="s">
         <v>1948</v>
       </c>
+      <c r="B1161" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>3200</v>
+      </c>
       <c r="D1161" t="s">
         <v>1949</v>
       </c>
@@ -23279,6 +23771,12 @@
       <c r="A1162" t="s">
         <v>1950</v>
       </c>
+      <c r="B1162" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>3107</v>
+      </c>
       <c r="D1162" t="s">
         <v>1951</v>
       </c>
@@ -23287,6 +23785,12 @@
       <c r="A1163" t="s">
         <v>1952</v>
       </c>
+      <c r="B1163" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>3041</v>
+      </c>
       <c r="D1163" t="s">
         <v>1953</v>
       </c>
@@ -23343,6 +23847,12 @@
       <c r="A1170" t="s">
         <v>1966</v>
       </c>
+      <c r="B1170" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>3166</v>
+      </c>
       <c r="D1170" t="s">
         <v>1967</v>
       </c>
@@ -23383,6 +23893,12 @@
       <c r="A1175" t="s">
         <v>1976</v>
       </c>
+      <c r="B1175" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>3198</v>
+      </c>
       <c r="D1175" t="s">
         <v>1977</v>
       </c>
@@ -23391,6 +23907,12 @@
       <c r="A1176" t="s">
         <v>1978</v>
       </c>
+      <c r="B1176" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>3198</v>
+      </c>
       <c r="D1176" t="s">
         <v>1979</v>
       </c>
@@ -23439,6 +23961,12 @@
       <c r="A1182" t="s">
         <v>1990</v>
       </c>
+      <c r="B1182" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>51</v>
+      </c>
       <c r="D1182" t="s">
         <v>1991</v>
       </c>
@@ -23447,6 +23975,12 @@
       <c r="A1183" t="s">
         <v>1992</v>
       </c>
+      <c r="B1183" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>2756</v>
+      </c>
       <c r="D1183" t="s">
         <v>1993</v>
       </c>
@@ -23471,6 +24005,12 @@
       <c r="A1186" t="s">
         <v>1998</v>
       </c>
+      <c r="B1186" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>3201</v>
+      </c>
       <c r="D1186" t="s">
         <v>1999</v>
       </c>
@@ -23487,6 +24027,12 @@
       <c r="A1188" t="s">
         <v>2002</v>
       </c>
+      <c r="B1188" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>3202</v>
+      </c>
       <c r="D1188" t="s">
         <v>2003</v>
       </c>
@@ -23527,6 +24073,12 @@
       <c r="A1193" t="s">
         <v>2012</v>
       </c>
+      <c r="B1193" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>3203</v>
+      </c>
       <c r="D1193" t="s">
         <v>2013</v>
       </c>
@@ -23567,6 +24119,12 @@
       <c r="A1198" t="s">
         <v>2022</v>
       </c>
+      <c r="B1198" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>3204</v>
+      </c>
       <c r="D1198" t="s">
         <v>2023</v>
       </c>
@@ -23575,6 +24133,12 @@
       <c r="A1199" t="s">
         <v>2024</v>
       </c>
+      <c r="B1199" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>3207</v>
+      </c>
       <c r="D1199" t="s">
         <v>2025</v>
       </c>
@@ -23646,6 +24210,12 @@
     <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>2042</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>2986</v>
       </c>
       <c r="D1208" t="s">
         <v>2043</v>

--- a/SegoeMDL2AssetsAlternative/font.xlsx
+++ b/SegoeMDL2AssetsAlternative/font.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_Studio\Projects\SvgFont2Files\SegoeMDL2AssetsAlternative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E7BB8-B567-4436-BE52-FBA4AA57B3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5565DC3-0EF0-47F5-9C38-C968B5AC5D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="3208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="3216">
   <si>
     <t>Name</t>
   </si>
@@ -9652,6 +9652,30 @@
   </si>
   <si>
     <t>&amp;#xf0e8;</t>
+  </si>
+  <si>
+    <t>&amp;#xf20e;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1b2;</t>
+  </si>
+  <si>
+    <t>&amp;#xf146;</t>
+  </si>
+  <si>
+    <t>&amp;#xf110;</t>
+  </si>
+  <si>
+    <t>&amp;#xf140;</t>
+  </si>
+  <si>
+    <t>&amp;#xf1ab;</t>
+  </si>
+  <si>
+    <t>&amp;#xf2a0;</t>
+  </si>
+  <si>
+    <t>&amp;#xf052;</t>
   </si>
 </sst>
 </file>
@@ -10495,8 +10519,8 @@
   <dimension ref="A1:D1553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1208" sqref="B1208"/>
+      <pane ySplit="1" topLeftCell="A1529" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1553" sqref="B1553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24225,6 +24249,12 @@
       <c r="A1209" t="s">
         <v>2044</v>
       </c>
+      <c r="B1209" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>3057</v>
+      </c>
       <c r="D1209" t="s">
         <v>2045</v>
       </c>
@@ -24233,6 +24263,12 @@
       <c r="A1210" t="s">
         <v>2046</v>
       </c>
+      <c r="B1210" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2749</v>
+      </c>
       <c r="D1210" t="s">
         <v>2047</v>
       </c>
@@ -24241,6 +24277,12 @@
       <c r="A1211" t="s">
         <v>2048</v>
       </c>
+      <c r="B1211" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>2750</v>
+      </c>
       <c r="D1211" t="s">
         <v>2049</v>
       </c>
@@ -24305,6 +24347,12 @@
       <c r="A1219" t="s">
         <v>2064</v>
       </c>
+      <c r="B1219" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>3208</v>
+      </c>
       <c r="D1219" t="s">
         <v>2065</v>
       </c>
@@ -24345,6 +24393,12 @@
       <c r="A1224" t="s">
         <v>2074</v>
       </c>
+      <c r="B1224" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>3080</v>
+      </c>
       <c r="D1224" t="s">
         <v>2075</v>
       </c>
@@ -24361,6 +24415,12 @@
       <c r="A1226" t="s">
         <v>2078</v>
       </c>
+      <c r="B1226" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>3181</v>
+      </c>
       <c r="D1226" t="s">
         <v>2079</v>
       </c>
@@ -24369,6 +24429,12 @@
       <c r="A1227" t="s">
         <v>2080</v>
       </c>
+      <c r="B1227" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2749</v>
+      </c>
       <c r="D1227" t="s">
         <v>2081</v>
       </c>
@@ -24377,6 +24443,12 @@
       <c r="A1228" t="s">
         <v>2082</v>
       </c>
+      <c r="B1228" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>2750</v>
+      </c>
       <c r="D1228" t="s">
         <v>2083</v>
       </c>
@@ -24385,6 +24457,12 @@
       <c r="A1229" t="s">
         <v>2084</v>
       </c>
+      <c r="B1229" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>2750</v>
+      </c>
       <c r="D1229" t="s">
         <v>2085</v>
       </c>
@@ -24393,6 +24471,12 @@
       <c r="A1230" t="s">
         <v>2086</v>
       </c>
+      <c r="B1230" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2749</v>
+      </c>
       <c r="D1230" t="s">
         <v>2087</v>
       </c>
@@ -24401,6 +24485,12 @@
       <c r="A1231" t="s">
         <v>2088</v>
       </c>
+      <c r="B1231" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>3047</v>
+      </c>
       <c r="D1231" t="s">
         <v>2089</v>
       </c>
@@ -24409,6 +24499,12 @@
       <c r="A1232" t="s">
         <v>2090</v>
       </c>
+      <c r="B1232" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>3053</v>
+      </c>
       <c r="D1232" t="s">
         <v>2091</v>
       </c>
@@ -24417,6 +24513,12 @@
       <c r="A1233" t="s">
         <v>2092</v>
       </c>
+      <c r="B1233" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>3114</v>
+      </c>
       <c r="D1233" t="s">
         <v>2093</v>
       </c>
@@ -24425,6 +24527,12 @@
       <c r="A1234" t="s">
         <v>2094</v>
       </c>
+      <c r="B1234" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>3166</v>
+      </c>
       <c r="D1234" t="s">
         <v>2095</v>
       </c>
@@ -24457,6 +24565,12 @@
       <c r="A1238" t="s">
         <v>2102</v>
       </c>
+      <c r="B1238" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>3080</v>
+      </c>
       <c r="D1238" t="s">
         <v>2103</v>
       </c>
@@ -24681,6 +24795,12 @@
       <c r="A1266" t="s">
         <v>2157</v>
       </c>
+      <c r="B1266" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>2738</v>
+      </c>
       <c r="D1266" t="s">
         <v>2158</v>
       </c>
@@ -24697,6 +24817,12 @@
       <c r="A1268" t="s">
         <v>2161</v>
       </c>
+      <c r="B1268" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>2743</v>
+      </c>
       <c r="D1268" t="s">
         <v>2162</v>
       </c>
@@ -24745,6 +24871,12 @@
       <c r="A1274" t="s">
         <v>2173</v>
       </c>
+      <c r="B1274" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>3081</v>
+      </c>
       <c r="D1274" t="s">
         <v>2174</v>
       </c>
@@ -24769,6 +24901,12 @@
       <c r="A1277" t="s">
         <v>2179</v>
       </c>
+      <c r="B1277" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>3077</v>
+      </c>
       <c r="D1277" t="s">
         <v>2180</v>
       </c>
@@ -24777,6 +24915,12 @@
       <c r="A1278" t="s">
         <v>2181</v>
       </c>
+      <c r="B1278" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>3071</v>
+      </c>
       <c r="D1278" t="s">
         <v>2182</v>
       </c>
@@ -24785,6 +24929,12 @@
       <c r="A1279" t="s">
         <v>2183</v>
       </c>
+      <c r="B1279" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>3159</v>
+      </c>
       <c r="D1279" t="s">
         <v>2184</v>
       </c>
@@ -24793,6 +24943,12 @@
       <c r="A1280" t="s">
         <v>2185</v>
       </c>
+      <c r="B1280" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>3128</v>
+      </c>
       <c r="D1280" t="s">
         <v>2186</v>
       </c>
@@ -24801,6 +24957,12 @@
       <c r="A1281" t="s">
         <v>2187</v>
       </c>
+      <c r="B1281" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>3137</v>
+      </c>
       <c r="D1281" t="s">
         <v>2188</v>
       </c>
@@ -24817,6 +24979,12 @@
       <c r="A1283" t="s">
         <v>2191</v>
       </c>
+      <c r="B1283" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>3188</v>
+      </c>
       <c r="D1283" t="s">
         <v>2192</v>
       </c>
@@ -24969,6 +25137,12 @@
       <c r="A1302" t="s">
         <v>2229</v>
       </c>
+      <c r="B1302" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>3096</v>
+      </c>
       <c r="D1302" t="s">
         <v>2230</v>
       </c>
@@ -24985,6 +25159,12 @@
       <c r="A1304" t="s">
         <v>2233</v>
       </c>
+      <c r="B1304" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>3209</v>
+      </c>
       <c r="D1304" t="s">
         <v>2234</v>
       </c>
@@ -25017,6 +25197,12 @@
       <c r="A1308" t="s">
         <v>2241</v>
       </c>
+      <c r="B1308" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>3189</v>
+      </c>
       <c r="D1308" t="s">
         <v>2242</v>
       </c>
@@ -25033,6 +25219,12 @@
       <c r="A1310" t="s">
         <v>2245</v>
       </c>
+      <c r="B1310" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>3210</v>
+      </c>
       <c r="D1310" t="s">
         <v>2246</v>
       </c>
@@ -25065,6 +25257,12 @@
       <c r="A1314" t="s">
         <v>2253</v>
       </c>
+      <c r="B1314" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>3211</v>
+      </c>
       <c r="D1314" t="s">
         <v>2254</v>
       </c>
@@ -25073,6 +25271,12 @@
       <c r="A1315" t="s">
         <v>2255</v>
       </c>
+      <c r="B1315" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>2738</v>
+      </c>
       <c r="D1315" t="s">
         <v>2256</v>
       </c>
@@ -25081,6 +25285,12 @@
       <c r="A1316" t="s">
         <v>2257</v>
       </c>
+      <c r="B1316" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>3056</v>
+      </c>
       <c r="D1316" t="s">
         <v>2258</v>
       </c>
@@ -25121,6 +25331,12 @@
       <c r="A1321" t="s">
         <v>2267</v>
       </c>
+      <c r="B1321" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>3046</v>
+      </c>
       <c r="D1321" t="s">
         <v>2268</v>
       </c>
@@ -25321,6 +25537,12 @@
       <c r="A1346" t="s">
         <v>2317</v>
       </c>
+      <c r="B1346" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>3050</v>
+      </c>
       <c r="D1346" t="s">
         <v>2318</v>
       </c>
@@ -25329,6 +25551,12 @@
       <c r="A1347" t="s">
         <v>2319</v>
       </c>
+      <c r="B1347" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>3212</v>
+      </c>
       <c r="D1347" t="s">
         <v>2320</v>
       </c>
@@ -25337,6 +25565,12 @@
       <c r="A1348" t="s">
         <v>2321</v>
       </c>
+      <c r="B1348" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>3213</v>
+      </c>
       <c r="D1348" t="s">
         <v>2322</v>
       </c>
@@ -25449,6 +25683,12 @@
       <c r="A1362" t="s">
         <v>2349</v>
       </c>
+      <c r="B1362" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>3017</v>
+      </c>
       <c r="D1362" t="s">
         <v>2350</v>
       </c>
@@ -25585,6 +25825,12 @@
       <c r="A1379" t="s">
         <v>2383</v>
       </c>
+      <c r="B1379" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>34</v>
+      </c>
       <c r="D1379" t="s">
         <v>2384</v>
       </c>
@@ -25649,6 +25895,12 @@
       <c r="A1387" t="s">
         <v>2399</v>
       </c>
+      <c r="B1387" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>2997</v>
+      </c>
       <c r="D1387" t="s">
         <v>2400</v>
       </c>
@@ -26449,6 +26701,12 @@
       <c r="A1487" t="s">
         <v>2599</v>
       </c>
+      <c r="B1487" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>3192</v>
+      </c>
       <c r="D1487" t="s">
         <v>2600</v>
       </c>
@@ -26609,6 +26867,12 @@
       <c r="A1507" t="s">
         <v>2633</v>
       </c>
+      <c r="B1507" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>3214</v>
+      </c>
       <c r="D1507" t="s">
         <v>2634</v>
       </c>
@@ -26625,6 +26889,12 @@
       <c r="A1509" t="s">
         <v>2637</v>
       </c>
+      <c r="B1509" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>2983</v>
+      </c>
       <c r="D1509" t="s">
         <v>2638</v>
       </c>
@@ -26657,6 +26927,12 @@
       <c r="A1513" t="s">
         <v>2645</v>
       </c>
+      <c r="B1513" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>3095</v>
+      </c>
       <c r="D1513" t="s">
         <v>2646</v>
       </c>
@@ -26705,6 +26981,12 @@
       <c r="A1519" t="s">
         <v>2657</v>
       </c>
+      <c r="B1519" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>3003</v>
+      </c>
       <c r="D1519" t="s">
         <v>2658</v>
       </c>
@@ -26721,6 +27003,12 @@
       <c r="A1521" t="s">
         <v>2661</v>
       </c>
+      <c r="B1521" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>3066</v>
+      </c>
       <c r="D1521" t="s">
         <v>2662</v>
       </c>
@@ -26729,6 +27017,12 @@
       <c r="A1522" t="s">
         <v>2663</v>
       </c>
+      <c r="B1522" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>3066</v>
+      </c>
       <c r="D1522" t="s">
         <v>2664</v>
       </c>
@@ -26737,6 +27031,12 @@
       <c r="A1523" t="s">
         <v>2665</v>
       </c>
+      <c r="B1523" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>3067</v>
+      </c>
       <c r="D1523" t="s">
         <v>2666</v>
       </c>
@@ -26745,6 +27045,12 @@
       <c r="A1524" t="s">
         <v>2667</v>
       </c>
+      <c r="B1524" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>3067</v>
+      </c>
       <c r="D1524" t="s">
         <v>2668</v>
       </c>
@@ -26753,6 +27059,12 @@
       <c r="A1525" t="s">
         <v>2669</v>
       </c>
+      <c r="B1525" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>3183</v>
+      </c>
       <c r="D1525" t="s">
         <v>2670</v>
       </c>
@@ -26769,6 +27081,12 @@
       <c r="A1527" t="s">
         <v>2673</v>
       </c>
+      <c r="B1527" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>51</v>
+      </c>
       <c r="D1527" t="s">
         <v>2674</v>
       </c>
@@ -26777,6 +27095,12 @@
       <c r="A1528" t="s">
         <v>2675</v>
       </c>
+      <c r="B1528" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>2744</v>
+      </c>
       <c r="D1528" t="s">
         <v>2676</v>
       </c>
@@ -26785,6 +27109,12 @@
       <c r="A1529" t="s">
         <v>2677</v>
       </c>
+      <c r="B1529" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>2976</v>
+      </c>
       <c r="D1529" t="s">
         <v>2678</v>
       </c>
@@ -26793,6 +27123,12 @@
       <c r="A1530" t="s">
         <v>2679</v>
       </c>
+      <c r="B1530" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>3026</v>
+      </c>
       <c r="D1530" t="s">
         <v>2680</v>
       </c>
@@ -26913,6 +27249,12 @@
       <c r="A1545" t="s">
         <v>2709</v>
       </c>
+      <c r="B1545" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>3198</v>
+      </c>
       <c r="D1545" t="s">
         <v>2710</v>
       </c>
@@ -26953,6 +27295,12 @@
       <c r="A1550" t="s">
         <v>2719</v>
       </c>
+      <c r="B1550" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>3084</v>
+      </c>
       <c r="D1550" t="s">
         <v>2720</v>
       </c>
@@ -26976,6 +27324,12 @@
     <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
         <v>2725</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>3215</v>
       </c>
       <c r="D1553" t="s">
         <v>2726</v>
